--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CLT/clt.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CLT/clt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CLT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92973891-7F56-49DA-9F2E-A9DD449A97AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92637680-7EAE-4196-813D-71A30ED21380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLT Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -626,33 +626,18 @@
     <t>Bristol-Myers Squibb Company</t>
   </si>
   <si>
-    <t>Expedia Group Inc.</t>
-  </si>
-  <si>
     <t>Include beta in FS</t>
   </si>
   <si>
-    <t>$234.8B</t>
-  </si>
-  <si>
     <t>Ubiquiti Inc</t>
   </si>
   <si>
-    <t>$53.1B</t>
-  </si>
-  <si>
     <t>Honeywell International Inc</t>
   </si>
   <si>
     <t>KLA Corp</t>
   </si>
   <si>
-    <t>TJX Cos Inc/The</t>
-  </si>
-  <si>
-    <t>As of Date: 12/31/2020</t>
-  </si>
-  <si>
     <t>90353W103</t>
   </si>
   <si>
@@ -689,13 +674,40 @@
     <t>Marriott International Inc.</t>
   </si>
   <si>
-    <t>July 2012 - December 2020 (not annualized if less than 1 year)</t>
-  </si>
-  <si>
-    <t>January 2012 - December 2020</t>
-  </si>
-  <si>
-    <t>July 2012 - December 2020 (Single Computation)</t>
+    <t>$239.1B</t>
+  </si>
+  <si>
+    <t>$63.1B</t>
+  </si>
+  <si>
+    <t>Expedia Group Inc</t>
+  </si>
+  <si>
+    <t>As of Date: 3/31/2021</t>
+  </si>
+  <si>
+    <t>747525103</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>QUALCOMM Inc.</t>
+  </si>
+  <si>
+    <t>TJX Companies Inc. (The)</t>
+  </si>
+  <si>
+    <t>July 2012 - March 2021 (not annualized if less than 1 year)</t>
+  </si>
+  <si>
+    <t>YTD</t>
+  </si>
+  <si>
+    <t>January 2012 - March 2021</t>
+  </si>
+  <si>
+    <t>July 2012 - March 2021 (Single Computation)</t>
   </si>
 </sst>
 </file>
@@ -1745,6 +1757,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,18 +1840,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2649,6 +2661,372 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 0" descr="9c853764573449dba5aae1fd0b85c35c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100D34FE-B288-4B8E-8BF4-D7120729EB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7863840" y="0"/>
+          <a:ext cx="4202430" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8FCE3E-D89D-495D-9BE7-6D52BA725835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1181100" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FFEB05-D0E3-4392-A5B8-791CF278A019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="2423160" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BF17B6-9A3A-460C-80FA-E7499F309A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1181100" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1A0C6B-BCDE-450F-AC3C-0F9CD935E679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1181100" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0331B547-DE2F-47FC-8919-3938211498FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="1181100" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2659,20 +3037,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>368226</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592742</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7D3644-59AC-44FD-A5C7-FA24B3CD916D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B66A929-9B0D-4EDA-8DDF-6D9FE028D54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,8 +3066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11341026" cy="8553993"/>
+          <a:off x="0" y="185056"/>
+          <a:ext cx="12175142" cy="9163595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2716,28 +3094,28 @@
       <sheetData sheetId="1">
         <row r="4">
           <cell r="C4">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="I4">
-            <v>7.3909565631935972E-2</v>
+            <v>4.258492951073467E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>$234.8B</v>
+            <v>$239.1B</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>$53.1B</v>
+            <v>$63.1B</v>
           </cell>
           <cell r="I6">
-            <v>0.92609043436806404</v>
+            <v>0.95741507048926533</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>28.02</v>
+            <v>30.15</v>
           </cell>
           <cell r="I7">
             <v>0</v>
@@ -3052,38 +3430,38 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="7"/>
+    <col min="1" max="1" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
     <col min="9" max="9" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="133" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" style="133" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="133" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="133" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="133" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" style="7" customWidth="1"/>
-    <col min="19" max="20" width="9.33203125" style="133" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="7"/>
+    <col min="15" max="15" width="4.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="7" customWidth="1"/>
+    <col min="19" max="20" width="9.28515625" style="133" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3109,15 +3487,15 @@
         <v>2</v>
       </c>
       <c r="J1" s="4">
-        <v>44196</v>
-      </c>
-      <c r="P1" s="143" t="s">
+        <v>44286</v>
+      </c>
+      <c r="P1" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>41092</v>
       </c>
@@ -3137,19 +3515,19 @@
         <v>3</v>
       </c>
       <c r="J2" s="79">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="K2" s="159"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
       <c r="N2" s="11"/>
-      <c r="P2" s="146" t="s">
+      <c r="P2" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>41121</v>
       </c>
@@ -3179,8 +3557,8 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <f>(COUNTA(C3:C1321))+K3</f>
-        <v>102</v>
+        <f>(COUNTA(C3:C1324))+K3</f>
+        <v>105</v>
       </c>
       <c r="K3" s="27">
         <v>0</v>
@@ -3188,13 +3566,13 @@
       <c r="L3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="149" t="s">
+      <c r="P3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>EOMONTH(A3,1)</f>
         <v>41152</v>
@@ -3220,13 +3598,13 @@
         <f t="shared" si="1"/>
         <v>2.0547268596265929E-2</v>
       </c>
-      <c r="P4" s="152" t="s">
+      <c r="P4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="154"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q4" s="157"/>
+      <c r="R4" s="158"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A68" si="3">EOMONTH(A4,1)</f>
         <v>41182</v>
@@ -3260,7 +3638,7 @@
       <c r="K5" s="46"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" si="3"/>
         <v>41213</v>
@@ -3290,14 +3668,14 @@
         <v>23</v>
       </c>
       <c r="J6" s="48">
-        <v>0.122</v>
-      </c>
-      <c r="K6" s="136" t="s">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="K6" s="140" t="s">
         <v>85</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="3"/>
         <v>41243</v>
@@ -3327,12 +3705,12 @@
         <v>24</v>
       </c>
       <c r="J7" s="48">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="K7" s="136"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="K7" s="140"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="3"/>
         <v>41274</v>
@@ -3362,15 +3740,15 @@
         <v>25</v>
       </c>
       <c r="J8" s="47">
-        <v>1.01</v>
-      </c>
-      <c r="K8" s="136"/>
+        <v>1.02</v>
+      </c>
+      <c r="K8" s="140"/>
       <c r="L8" s="133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="3"/>
         <v>41305</v>
@@ -3400,12 +3778,12 @@
         <v>28</v>
       </c>
       <c r="J9" s="47">
-        <v>0.91</v>
-      </c>
-      <c r="K9" s="136"/>
+        <v>0.94</v>
+      </c>
+      <c r="K9" s="140"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="3"/>
         <v>41333</v>
@@ -3435,12 +3813,12 @@
         <v>26</v>
       </c>
       <c r="J10" s="48">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="K10" s="136"/>
+        <v>1.2135</v>
+      </c>
+      <c r="K10" s="140"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="3"/>
         <v>41364</v>
@@ -3470,9 +3848,9 @@
         <v>27</v>
       </c>
       <c r="J11" s="48">
-        <v>0.97660000000000002</v>
-      </c>
-      <c r="K11" s="136"/>
+        <v>1.0028999999999999</v>
+      </c>
+      <c r="K11" s="140"/>
       <c r="M11" s="7"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
@@ -3489,7 +3867,7 @@
         <v>Lipper</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="3"/>
         <v>41394</v>
@@ -3519,31 +3897,31 @@
         <v>77</v>
       </c>
       <c r="J12" s="47">
-        <v>1.71</v>
-      </c>
-      <c r="K12" s="136"/>
+        <v>1.78</v>
+      </c>
+      <c r="K12" s="140"/>
       <c r="M12" s="7"/>
       <c r="P12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="16">
         <f>EOMONTH($J$1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="R12" s="17">
-        <f>SUMIF($A$2:$A$318,$Q12,$B$2:$B$318)</f>
-        <v>20124</v>
+        <f>SUMIF($A$2:$A$321,$Q12,$B$2:$B$321)</f>
+        <v>17625</v>
       </c>
       <c r="S12" s="59">
-        <f>SUMIF($A$2:$A$318,$Q12,$D$2:$D$318)</f>
-        <v>27655.111298660227</v>
+        <f>SUMIF($A$2:$A$321,$Q12,$D$2:$D$321)</f>
+        <v>22235.256883637539</v>
       </c>
       <c r="T12" s="56">
-        <f>SUMIF($A$2:$A$318,$Q12,$F$2:$F$318)</f>
-        <v>17559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <f>SUMIF($A$2:$A$321,$Q12,$F$2:$F$321)</f>
+        <v>14784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="3"/>
         <v>41425</v>
@@ -3573,31 +3951,31 @@
         <v>173</v>
       </c>
       <c r="J13" s="47">
-        <v>0.41</v>
-      </c>
-      <c r="K13" s="136"/>
+        <v>0.43</v>
+      </c>
+      <c r="K13" s="140"/>
       <c r="M13" s="92"/>
       <c r="P13" s="21" t="s">
         <v>67</v>
       </c>
       <c r="Q13" s="16">
         <f>EOMONTH($J$1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="R13" s="17">
-        <f>SUMIF($A$2:$A$318,$Q13,$B$2:$B$318)</f>
-        <v>20603.759999999998</v>
+        <f>SUMIF($A$2:$A$321,$Q13,$B$2:$B$321)</f>
+        <v>20641.849999999999</v>
       </c>
       <c r="S13" s="59">
-        <f>SUMIF($A$2:$A$318,$Q13,$D$2:$D$318)</f>
-        <v>21997.088300453652</v>
+        <f>SUMIF($A$2:$A$321,$Q13,$D$2:$D$321)</f>
+        <v>21830.108661251204</v>
       </c>
       <c r="T13" s="56">
-        <f>SUMIF($A$2:$A$318,$Q13,$F$2:$F$318)</f>
-        <v>15581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <f>SUMIF($A$2:$A$321,$Q13,$F$2:$F$321)</f>
+        <v>15503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="3"/>
         <v>41455</v>
@@ -3632,22 +4010,22 @@
       </c>
       <c r="Q14" s="16">
         <f>EOMONTH($J$1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="R14" s="17">
-        <f>SUMIF($A$2:$A$318,$Q14,$B$2:$B$318)</f>
-        <v>15849.93</v>
+        <f>SUMIF($A$2:$A$321,$Q14,$B$2:$B$321)</f>
+        <v>16398.16</v>
       </c>
       <c r="S14" s="59">
-        <f>SUMIF($A$2:$A$318,$Q14,$D$2:$D$318)</f>
-        <v>16126.595632450682</v>
+        <f>SUMIF($A$2:$A$321,$Q14,$D$2:$D$321)</f>
+        <v>16343.960333368503</v>
       </c>
       <c r="T14" s="56">
-        <f>SUMIF($A$2:$A$318,$Q14,$F$2:$F$318)</f>
-        <v>12593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <f>SUMIF($A$2:$A$321,$Q14,$F$2:$F$321)</f>
+        <v>12710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="3"/>
         <v>41486</v>
@@ -3704,19 +4082,19 @@
         <v>41092</v>
       </c>
       <c r="R15" s="17">
-        <f>SUMIF($A$2:$A$318,$Q15,$B$2:$B$318)</f>
+        <f>SUMIF($A$2:$A$321,$Q15,$B$2:$B$321)</f>
         <v>10000</v>
       </c>
       <c r="S15" s="59">
-        <f>SUMIF($A$2:$A$318,$Q15,$D$2:$D$318)</f>
+        <f>SUMIF($A$2:$A$321,$Q15,$D$2:$D$321)</f>
         <v>10000</v>
       </c>
       <c r="T15" s="56">
-        <f>SUMIF($A$2:$A$318,$Q15,$F$2:$F$318)</f>
+        <f>SUMIF($A$2:$A$321,$Q15,$F$2:$F$321)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="3"/>
         <v>41517</v>
@@ -3747,45 +4125,45 @@
       </c>
       <c r="J16" s="29">
         <f t="shared" ref="J16:N21" si="4">J24*100</f>
-        <v>27.832438878950505</v>
+        <v>54.967375886524827</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="4"/>
-        <v>7.6803107858644415</v>
+        <v>9.7843063712351288</v>
       </c>
       <c r="L16" s="29">
         <f t="shared" si="4"/>
-        <v>10.170572686983071</v>
+        <v>10.742636061459422</v>
       </c>
       <c r="M16" s="29">
         <f>M24*100</f>
-        <v>11.76</v>
+        <v>12.18</v>
       </c>
       <c r="N16" s="29">
         <f t="shared" si="4"/>
-        <v>157.25</v>
+        <v>173.13</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>7</v>
       </c>
       <c r="Q16" s="23">
         <f>J1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="R16" s="24">
-        <f>SUMIF($A$2:$A$318,$Q16,$B$2:$B$318)</f>
-        <v>25725</v>
+        <f>SUMIF($A$2:$A$321,$Q16,$B$2:$B$321)</f>
+        <v>27313</v>
       </c>
       <c r="S16" s="60">
-        <f>SUMIF($A$2:$A$318,$Q16,$D$2:$D$318)</f>
-        <v>32743.327355206289</v>
+        <f>SUMIF($A$2:$A$321,$Q16,$D$2:$D$321)</f>
+        <v>34765.186201076103</v>
       </c>
       <c r="T16" s="57">
-        <f>SUMIF($A$2:$A$318,$Q16,$F$2:$F$318)</f>
-        <v>20195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUMIF($A$2:$A$321,$Q16,$F$2:$F$321)</f>
+        <v>21012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="3"/>
         <v>41547</v>
@@ -3816,26 +4194,26 @@
       </c>
       <c r="J17" s="29">
         <f t="shared" si="4"/>
-        <v>26.88</v>
+        <v>53.87</v>
       </c>
       <c r="K17" s="29">
         <f t="shared" si="4"/>
-        <v>6.87</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="L17" s="29">
         <f t="shared" si="4"/>
-        <v>9.36</v>
+        <v>9.9</v>
       </c>
       <c r="M17" s="29">
         <f t="shared" si="4"/>
-        <v>10.94</v>
+        <v>11.35</v>
       </c>
       <c r="N17" s="29">
         <f t="shared" si="4"/>
-        <v>141.67000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>156.07999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f t="shared" si="3"/>
         <v>41578</v>
@@ -3866,26 +4244,26 @@
       </c>
       <c r="J18" s="29">
         <f t="shared" si="4"/>
-        <v>20.48</v>
+        <v>46.01</v>
       </c>
       <c r="K18" s="29">
         <f t="shared" si="4"/>
-        <v>5.58</v>
+        <v>7.64</v>
       </c>
       <c r="L18" s="29">
         <f t="shared" si="4"/>
-        <v>8.8800000000000008</v>
+        <v>9.44</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="4"/>
-        <v>10.979999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="N18" s="29">
         <f t="shared" si="4"/>
-        <v>142.45000000000002</v>
-      </c>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="135"/>
+        <v>157.42000000000002</v>
+      </c>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
       <c r="R18" s="49" t="str">
         <f>R11</f>
         <v>CLTAX</v>
@@ -3899,7 +4277,7 @@
         <v>Lipper</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="3"/>
         <v>41608</v>
@@ -3931,42 +4309,42 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="4"/>
-        <v>15.012244433054276</v>
+        <v>42.126623376623378</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="4"/>
-        <v>9.0308781525830319</v>
+        <v>10.666765039292647</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="4"/>
-        <v>9.906386867675776</v>
+        <v>10.576889279776513</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="4"/>
-        <v>8.6159707753676429</v>
+        <v>8.8555387751591432</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>101.95</v>
-      </c>
-      <c r="P19" s="141" t="s">
+        <v>110.11999999999999</v>
+      </c>
+      <c r="P19" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="142"/>
+      <c r="Q19" s="146"/>
       <c r="R19" s="9">
         <f>($R$16-R12)/R12</f>
-        <v>0.27832438878950505</v>
+        <v>0.54967375886524827</v>
       </c>
       <c r="S19" s="62">
         <f>($S$16-S12)/S12</f>
-        <v>0.18398826898926871</v>
+        <v>0.56351628330676395</v>
       </c>
       <c r="T19" s="51">
         <f>($T$16-T12)/T12</f>
-        <v>0.15012244433054275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.42126623376623379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f t="shared" si="3"/>
         <v>41639</v>
@@ -3997,43 +4375,43 @@
       </c>
       <c r="J20" s="29">
         <f t="shared" si="4"/>
-        <v>28.12</v>
+        <v>55.410000000000004</v>
       </c>
       <c r="K20" s="29">
         <f t="shared" si="4"/>
-        <v>7.9600000000000009</v>
+        <v>10.07</v>
       </c>
       <c r="L20" s="29">
         <f t="shared" si="4"/>
-        <v>10.440000000000001</v>
+        <v>11.01</v>
       </c>
       <c r="M20" s="29">
         <f t="shared" si="4"/>
-        <v>8.44</v>
+        <v>9.09</v>
       </c>
       <c r="N20" s="29">
         <f t="shared" si="4"/>
-        <v>70.33</v>
-      </c>
-      <c r="P20" s="141" t="str">
+        <v>80.97999999999999</v>
+      </c>
+      <c r="P20" s="145" t="str">
         <f>P13</f>
         <v>3YR</v>
       </c>
-      <c r="Q20" s="142"/>
+      <c r="Q20" s="146"/>
       <c r="R20" s="9">
         <f>R16/R13-1</f>
-        <v>0.24855851553308717</v>
+        <v>0.3231856640756523</v>
       </c>
       <c r="S20" s="62">
         <f>S16/S13-1</f>
-        <v>0.4885300685241607</v>
+        <v>0.5925338137590157</v>
       </c>
       <c r="T20" s="51">
         <f>T16/T13-1</f>
-        <v>0.29612990180347865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.35535057730761799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f t="shared" si="3"/>
         <v>41670</v>
@@ -4065,42 +4443,42 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="4"/>
-        <v>15.012244433054276</v>
+        <v>42.126623376623378</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="4"/>
-        <v>9.0308781525830319</v>
+        <v>10.666765039292647</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="4"/>
-        <v>9.906386867675776</v>
+        <v>10.576889279776513</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="4"/>
-        <v>6.88</v>
+        <v>7.24</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>54.92</v>
-      </c>
-      <c r="P21" s="141" t="s">
+        <v>61.19</v>
+      </c>
+      <c r="P21" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="142"/>
+      <c r="Q21" s="146"/>
       <c r="R21" s="9">
         <f>(1+R20)^(12/36)-1</f>
-        <v>7.6803107858644415E-2</v>
+        <v>9.7843063712351297E-2</v>
       </c>
       <c r="S21" s="62">
         <f>(1+S20)^(12/36)-1</f>
-        <v>0.14178904188562025</v>
+        <v>0.1677849863795664</v>
       </c>
       <c r="T21" s="51">
         <f>(1+T20)^(12/36)-1</f>
-        <v>9.0308781525830328E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.10666765039292647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="3"/>
         <v>41698</v>
@@ -4127,25 +4505,25 @@
         <v>3.7861366622864649E-2</v>
       </c>
       <c r="N22" s="133"/>
-      <c r="P22" s="141" t="str">
+      <c r="P22" s="145" t="str">
         <f>P14</f>
         <v>5YR</v>
       </c>
-      <c r="Q22" s="142"/>
+      <c r="Q22" s="146"/>
       <c r="R22" s="9">
         <f>R16/R14-1</f>
-        <v>0.6230355591475798</v>
+        <v>0.66561370300082445</v>
       </c>
       <c r="S22" s="62">
         <f>S16/S14-1</f>
-        <v>1.0303930290977625</v>
+        <v>1.1270968291631291</v>
       </c>
       <c r="T22" s="51">
         <f>T16/T14-1</f>
-        <v>0.60366870483602009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.65318646734854435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f t="shared" si="3"/>
         <v>41729</v>
@@ -4192,24 +4570,24 @@
         <f>N15</f>
         <v>Cumm. Inception</v>
       </c>
-      <c r="P23" s="141" t="s">
+      <c r="P23" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="142"/>
+      <c r="Q23" s="146"/>
       <c r="R23" s="9">
         <f>(1+R22)^(12/60)-1</f>
-        <v>0.1017057268698307</v>
+        <v>0.10742636061459421</v>
       </c>
       <c r="S23" s="62">
         <f>(1+S22)^(12/60)-1</f>
-        <v>0.15216856682870006</v>
+        <v>0.16294038412866563</v>
       </c>
       <c r="T23" s="51">
         <f>(1+T22)^(12/60)-1</f>
-        <v>9.906386867675776E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.10576889279776513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f t="shared" si="3"/>
         <v>41759</v>
@@ -4240,41 +4618,41 @@
       </c>
       <c r="J24" s="44">
         <f>R19</f>
-        <v>0.27832438878950505</v>
+        <v>0.54967375886524827</v>
       </c>
       <c r="K24" s="44">
         <f>R21</f>
-        <v>7.6803107858644415E-2</v>
+        <v>9.7843063712351297E-2</v>
       </c>
       <c r="L24" s="44">
         <f>R23</f>
-        <v>0.1017057268698307</v>
+        <v>0.10742636061459421</v>
       </c>
       <c r="M24" s="32">
-        <v>0.1176</v>
+        <v>0.12180000000000001</v>
       </c>
       <c r="N24" s="44">
         <f>R24</f>
-        <v>1.5725</v>
-      </c>
-      <c r="P24" s="141" t="s">
+        <v>1.7313000000000001</v>
+      </c>
+      <c r="P24" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="Q24" s="142"/>
+      <c r="Q24" s="146"/>
       <c r="R24" s="9">
         <f>($R$16-R15)/R15</f>
-        <v>1.5725</v>
+        <v>1.7313000000000001</v>
       </c>
       <c r="S24" s="62">
         <f>($S$16-S15)/S15</f>
-        <v>2.2743327355206291</v>
+        <v>2.4765186201076101</v>
       </c>
       <c r="T24" s="51">
         <f>($T$16-T15)/T15</f>
-        <v>1.0195000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.1012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f t="shared" si="3"/>
         <v>41790</v>
@@ -4304,38 +4682,38 @@
         <v>11</v>
       </c>
       <c r="J25" s="32">
-        <v>0.26879999999999998</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="K25" s="32">
-        <v>6.8699999999999997E-2</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="L25" s="32">
-        <v>9.3600000000000003E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="M25" s="32">
-        <v>0.1094</v>
+        <v>0.1135</v>
       </c>
       <c r="N25" s="32">
-        <v>1.4167000000000001</v>
-      </c>
-      <c r="P25" s="137" t="s">
+        <v>1.5608</v>
+      </c>
+      <c r="P25" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="138"/>
+      <c r="Q25" s="142"/>
       <c r="R25" s="86">
         <f>POWER(R16/R15,365/($Q$16-$Q$15))-1</f>
-        <v>0.11751606253181124</v>
+        <v>0.12167460032161292</v>
       </c>
       <c r="S25" s="87">
         <f>POWER(S16/S15,365/($Q$16-$Q$15))-1</f>
-        <v>0.14967052575649298</v>
+        <v>0.15302905678370982</v>
       </c>
       <c r="T25" s="64">
         <f t="shared" ref="T25" si="5">POWER(T16/T15,365/($Q$16-$Q$15))-1</f>
-        <v>8.6159707753676429E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>8.8555387751591441E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f t="shared" si="3"/>
         <v>41820</v>
@@ -4365,24 +4743,24 @@
         <v>12</v>
       </c>
       <c r="J26" s="32">
-        <v>0.20480000000000001</v>
+        <v>0.46010000000000001</v>
       </c>
       <c r="K26" s="32">
-        <v>5.5800000000000002E-2</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="L26" s="32">
-        <v>8.8800000000000004E-2</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="M26" s="32">
-        <v>0.10979999999999999</v>
+        <v>0.1142</v>
       </c>
       <c r="N26" s="32">
-        <v>1.4245000000000001</v>
+        <v>1.5742</v>
       </c>
       <c r="S26" s="63"/>
       <c r="T26" s="63"/>
     </row>
-    <row r="27" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f t="shared" si="3"/>
         <v>41851</v>
@@ -4414,28 +4792,28 @@
       </c>
       <c r="J27" s="44">
         <f>T19</f>
-        <v>0.15012244433054275</v>
+        <v>0.42126623376623379</v>
       </c>
       <c r="K27" s="44">
         <f>T21</f>
-        <v>9.0308781525830328E-2</v>
+        <v>0.10666765039292647</v>
       </c>
       <c r="L27" s="44">
         <f>T23</f>
-        <v>9.906386867675776E-2</v>
+        <v>0.10576889279776513</v>
       </c>
       <c r="M27" s="44">
         <f>T25</f>
-        <v>8.6159707753676429E-2</v>
+        <v>8.8555387751591441E-2</v>
       </c>
       <c r="N27" s="44">
         <f>T24</f>
-        <v>1.0195000000000001</v>
+        <v>1.1012</v>
       </c>
       <c r="S27" s="63"/>
       <c r="T27" s="63"/>
     </row>
-    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f t="shared" si="3"/>
         <v>41882</v>
@@ -4465,24 +4843,24 @@
         <v>82</v>
       </c>
       <c r="J28" s="32">
-        <v>0.28120000000000001</v>
+        <v>0.55410000000000004</v>
       </c>
       <c r="K28" s="32">
-        <v>7.9600000000000004E-2</v>
+        <v>0.1007</v>
       </c>
       <c r="L28" s="32">
-        <v>0.10440000000000001</v>
+        <v>0.1101</v>
       </c>
       <c r="M28" s="32">
-        <v>8.4400000000000003E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="N28" s="32">
-        <v>0.70330000000000004</v>
+        <v>0.80979999999999996</v>
       </c>
       <c r="S28" s="63"/>
       <c r="T28" s="63"/>
     </row>
-    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f t="shared" si="3"/>
         <v>41912</v>
@@ -4514,26 +4892,26 @@
       </c>
       <c r="J29" s="44">
         <f>J27</f>
-        <v>0.15012244433054275</v>
+        <v>0.42126623376623379</v>
       </c>
       <c r="K29" s="44">
         <f>K27</f>
-        <v>9.0308781525830328E-2</v>
+        <v>0.10666765039292647</v>
       </c>
       <c r="L29" s="44">
         <f>L27</f>
-        <v>9.906386867675776E-2</v>
+        <v>0.10576889279776513</v>
       </c>
       <c r="M29" s="32">
-        <v>6.88E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="N29" s="32">
-        <v>0.54920000000000002</v>
+        <v>0.6119</v>
       </c>
       <c r="S29" s="63"/>
       <c r="T29" s="63"/>
     </row>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f t="shared" si="3"/>
         <v>41943</v>
@@ -4561,7 +4939,7 @@
       </c>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f t="shared" si="3"/>
         <v>41973</v>
@@ -4589,7 +4967,7 @@
       </c>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f t="shared" si="3"/>
         <v>42004</v>
@@ -4617,7 +4995,7 @@
       </c>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f t="shared" si="3"/>
         <v>42035</v>
@@ -4643,13 +5021,13 @@
         <f t="shared" si="1"/>
         <v>-1.08367520705937E-3</v>
       </c>
-      <c r="I33" s="140" t="s">
+      <c r="I33" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="140"/>
+      <c r="J33" s="144"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="22.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f t="shared" si="3"/>
         <v>42063</v>
@@ -4675,14 +5053,14 @@
         <f t="shared" si="1"/>
         <v>2.7586206896551724E-2</v>
       </c>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
     </row>
-    <row r="35" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f t="shared" si="3"/>
         <v>42094</v>
@@ -4713,14 +5091,14 @@
       </c>
       <c r="J35" s="91">
         <f>'[1]CLT Portfolio'!I6</f>
-        <v>0.92609043436806404</v>
+        <v>0.95741507048926533</v>
       </c>
       <c r="K35" s="25"/>
       <c r="L35" s="9"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
     </row>
-    <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f t="shared" si="3"/>
         <v>42124</v>
@@ -4756,7 +5134,7 @@
       <c r="K36" s="25"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f t="shared" si="3"/>
         <v>42155</v>
@@ -4787,13 +5165,13 @@
       </c>
       <c r="J37" s="91">
         <f>'[1]CLT Portfolio'!I4</f>
-        <v>7.3909565631935972E-2</v>
+        <v>4.258492951073467E-2</v>
       </c>
       <c r="K37" s="25"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f t="shared" si="3"/>
         <v>42185</v>
@@ -4824,13 +5202,13 @@
       </c>
       <c r="J38" s="89">
         <f>'[1]CLT Portfolio'!C4</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K38" s="25"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f t="shared" si="3"/>
         <v>42216</v>
@@ -4861,13 +5239,13 @@
       </c>
       <c r="J39" s="90" t="str">
         <f>'[1]CLT Portfolio'!C5</f>
-        <v>$234.8B</v>
+        <v>$239.1B</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
     </row>
-    <row r="40" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f t="shared" si="3"/>
         <v>42247</v>
@@ -4898,13 +5276,13 @@
       </c>
       <c r="J40" s="90" t="str">
         <f>'[1]CLT Portfolio'!C6</f>
-        <v>$53.1B</v>
+        <v>$63.1B</v>
       </c>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
     </row>
-    <row r="41" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <f t="shared" si="3"/>
         <v>42277</v>
@@ -4935,13 +5313,13 @@
       </c>
       <c r="J41" s="90">
         <f>'[1]CLT Portfolio'!C7</f>
-        <v>28.02</v>
+        <v>30.15</v>
       </c>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
     </row>
-    <row r="42" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f t="shared" si="3"/>
         <v>42308</v>
@@ -4972,7 +5350,7 @@
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <f t="shared" si="3"/>
         <v>42338</v>
@@ -4998,15 +5376,15 @@
         <f t="shared" si="1"/>
         <v>-5.2119797744068453E-3</v>
       </c>
-      <c r="I43" s="140" t="s">
+      <c r="I43" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="J43" s="140"/>
+      <c r="J43" s="144"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
     </row>
-    <row r="44" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f t="shared" si="3"/>
         <v>42369</v>
@@ -5036,13 +5414,13 @@
         <v>90</v>
       </c>
       <c r="J44" s="93">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
     </row>
-    <row r="45" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <f t="shared" si="3"/>
         <v>42400</v>
@@ -5080,7 +5458,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
     </row>
-    <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <f t="shared" si="3"/>
         <v>42429</v>
@@ -5116,7 +5494,7 @@
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
     </row>
-    <row r="47" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <f t="shared" si="3"/>
         <v>42460</v>
@@ -5147,7 +5525,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <f t="shared" si="3"/>
         <v>42490</v>
@@ -5178,7 +5556,7 @@
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
     </row>
-    <row r="49" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <f t="shared" si="3"/>
         <v>42521</v>
@@ -5209,7 +5587,7 @@
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
     </row>
-    <row r="50" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <f t="shared" si="3"/>
         <v>42551</v>
@@ -5240,7 +5618,7 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
     </row>
-    <row r="51" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <f t="shared" si="3"/>
         <v>42582</v>
@@ -5263,7 +5641,7 @@
         <v>13347</v>
       </c>
       <c r="G51" s="74">
-        <f t="shared" ref="G51:G104" si="6">(F51-F50)/F50</f>
+        <f t="shared" ref="G51:G107" si="6">(F51-F50)/F50</f>
         <v>3.0020064824818646E-2</v>
       </c>
       <c r="J51" s="25"/>
@@ -5271,7 +5649,7 @@
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <f t="shared" si="3"/>
         <v>42613</v>
@@ -5302,7 +5680,7 @@
       <c r="L52" s="26"/>
       <c r="M52" s="26"/>
     </row>
-    <row r="53" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <f t="shared" si="3"/>
         <v>42643</v>
@@ -5333,7 +5711,7 @@
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <f t="shared" si="3"/>
         <v>42674</v>
@@ -5364,7 +5742,7 @@
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
     </row>
-    <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <f t="shared" si="3"/>
         <v>42704</v>
@@ -5395,7 +5773,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <f t="shared" si="3"/>
         <v>42735</v>
@@ -5426,7 +5804,7 @@
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <f t="shared" si="3"/>
         <v>42766</v>
@@ -5457,7 +5835,7 @@
       <c r="L57" s="26"/>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <f t="shared" si="3"/>
         <v>42794</v>
@@ -5488,7 +5866,7 @@
       <c r="L58" s="26"/>
       <c r="M58" s="26"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <f t="shared" si="3"/>
         <v>42825</v>
@@ -5519,7 +5897,7 @@
       <c r="L59" s="26"/>
       <c r="M59" s="26"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <f t="shared" si="3"/>
         <v>42855</v>
@@ -5550,7 +5928,7 @@
       <c r="L60" s="26"/>
       <c r="M60" s="26"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <f t="shared" si="3"/>
         <v>42886</v>
@@ -5581,7 +5959,7 @@
       <c r="L61" s="26"/>
       <c r="M61" s="26"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <f t="shared" si="3"/>
         <v>42916</v>
@@ -5612,7 +5990,7 @@
       <c r="L62" s="26"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <f t="shared" si="3"/>
         <v>42947</v>
@@ -5643,7 +6021,7 @@
       <c r="L63" s="26"/>
       <c r="M63" s="26"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <f t="shared" si="3"/>
         <v>42978</v>
@@ -5674,7 +6052,7 @@
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <f t="shared" si="3"/>
         <v>43008</v>
@@ -5705,7 +6083,7 @@
       <c r="L65" s="26"/>
       <c r="M65" s="26"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <f t="shared" si="3"/>
         <v>43039</v>
@@ -5736,7 +6114,7 @@
       <c r="L66" s="26"/>
       <c r="M66" s="26"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <f t="shared" si="3"/>
         <v>43069</v>
@@ -5745,7 +6123,7 @@
         <v>20025.439999999999</v>
       </c>
       <c r="C67" s="69">
-        <f t="shared" ref="C67:C104" si="7">(B67-B66)/B66</f>
+        <f t="shared" ref="C67:C107" si="7">(B67-B66)/B66</f>
         <v>4.1746996037026599E-2</v>
       </c>
       <c r="D67" s="82">
@@ -5767,7 +6145,7 @@
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <f t="shared" si="3"/>
         <v>43100</v>
@@ -5780,7 +6158,7 @@
         <v>2.8879265574189617E-2</v>
       </c>
       <c r="D68" s="82">
-        <f t="shared" ref="D68:D104" si="8">D67*(1+E68)</f>
+        <f t="shared" ref="D68:D107" si="8">D67*(1+E68)</f>
         <v>21997.088300453652</v>
       </c>
       <c r="E68" s="112">
@@ -5798,9 +6176,9 @@
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <f t="shared" ref="A69:A104" si="9">EOMONTH(A68,1)</f>
+        <f t="shared" ref="A69:A107" si="9">EOMONTH(A68,1)</f>
         <v>43131</v>
       </c>
       <c r="B69" s="81">
@@ -5829,7 +6207,7 @@
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <f t="shared" si="9"/>
         <v>43159</v>
@@ -5860,7 +6238,7 @@
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <f t="shared" si="9"/>
         <v>43190</v>
@@ -5891,7 +6269,7 @@
       <c r="L71" s="26"/>
       <c r="M71" s="26"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <f t="shared" si="9"/>
         <v>43220</v>
@@ -5922,7 +6300,7 @@
       <c r="L72" s="26"/>
       <c r="M72" s="26"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <f t="shared" si="9"/>
         <v>43251</v>
@@ -5953,7 +6331,7 @@
       <c r="L73" s="26"/>
       <c r="M73" s="26"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <f t="shared" si="9"/>
         <v>43281</v>
@@ -5984,7 +6362,7 @@
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <f t="shared" si="9"/>
         <v>43312</v>
@@ -6015,7 +6393,7 @@
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <f t="shared" si="9"/>
         <v>43343</v>
@@ -6046,7 +6424,7 @@
       <c r="L76" s="26"/>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <f t="shared" si="9"/>
         <v>43373</v>
@@ -6077,7 +6455,7 @@
       <c r="L77" s="26"/>
       <c r="M77" s="26"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <f t="shared" si="9"/>
         <v>43404</v>
@@ -6108,7 +6486,7 @@
       <c r="L78" s="26"/>
       <c r="M78" s="26"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <f t="shared" si="9"/>
         <v>43434</v>
@@ -6139,7 +6517,7 @@
       <c r="L79" s="26"/>
       <c r="M79" s="26"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <f t="shared" si="9"/>
         <v>43465</v>
@@ -6170,7 +6548,7 @@
       <c r="L80" s="26"/>
       <c r="M80" s="26"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <f t="shared" si="9"/>
         <v>43496</v>
@@ -6201,7 +6579,7 @@
       <c r="L81" s="26"/>
       <c r="M81" s="26"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <f t="shared" si="9"/>
         <v>43524</v>
@@ -6232,7 +6610,7 @@
       <c r="L82" s="26"/>
       <c r="M82" s="26"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <f t="shared" si="9"/>
         <v>43555</v>
@@ -6263,7 +6641,7 @@
       <c r="L83" s="26"/>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <f t="shared" si="9"/>
         <v>43585</v>
@@ -6294,7 +6672,7 @@
       <c r="L84" s="26"/>
       <c r="M84" s="26"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <f t="shared" si="9"/>
         <v>43616</v>
@@ -6325,7 +6703,7 @@
       <c r="L85" s="26"/>
       <c r="M85" s="26"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <f t="shared" si="9"/>
         <v>43646</v>
@@ -6356,7 +6734,7 @@
       <c r="L86" s="26"/>
       <c r="M86" s="26"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <f t="shared" si="9"/>
         <v>43677</v>
@@ -6387,7 +6765,7 @@
       <c r="L87" s="26"/>
       <c r="M87" s="26"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <f t="shared" si="9"/>
         <v>43708</v>
@@ -6418,7 +6796,7 @@
       <c r="L88" s="26"/>
       <c r="M88" s="26"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <f t="shared" si="9"/>
         <v>43738</v>
@@ -6449,7 +6827,7 @@
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <f t="shared" si="9"/>
         <v>43769</v>
@@ -6480,7 +6858,7 @@
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <f t="shared" si="9"/>
         <v>43799</v>
@@ -6511,7 +6889,7 @@
       <c r="L91" s="26"/>
       <c r="M91" s="26"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <f t="shared" si="9"/>
         <v>43830</v>
@@ -6542,7 +6920,7 @@
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <f t="shared" si="9"/>
         <v>43861</v>
@@ -6573,7 +6951,7 @@
       <c r="L93" s="26"/>
       <c r="M93" s="26"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <f t="shared" si="9"/>
         <v>43890</v>
@@ -6604,7 +6982,7 @@
       <c r="L94" s="26"/>
       <c r="M94" s="26"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <f t="shared" si="9"/>
         <v>43921</v>
@@ -6635,7 +7013,7 @@
       <c r="L95" s="26"/>
       <c r="M95" s="26"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <f t="shared" si="9"/>
         <v>43951</v>
@@ -6666,7 +7044,7 @@
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <f t="shared" si="9"/>
         <v>43982</v>
@@ -6697,7 +7075,7 @@
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <f t="shared" si="9"/>
         <v>44012</v>
@@ -6728,7 +7106,7 @@
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <f t="shared" si="9"/>
         <v>44043</v>
@@ -6759,7 +7137,7 @@
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <f t="shared" si="9"/>
         <v>44074</v>
@@ -6790,7 +7168,7 @@
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <f t="shared" si="9"/>
         <v>44104</v>
@@ -6821,7 +7199,7 @@
       <c r="L101" s="26"/>
       <c r="M101" s="26"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <f t="shared" si="9"/>
         <v>44135</v>
@@ -6852,7 +7230,7 @@
       <c r="L102" s="26"/>
       <c r="M102" s="26"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <f t="shared" si="9"/>
         <v>44165</v>
@@ -6883,7 +7261,7 @@
       <c r="L103" s="26"/>
       <c r="M103" s="26"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <f t="shared" si="9"/>
         <v>44196</v>
@@ -6914,34 +7292,100 @@
       <c r="L104" s="26"/>
       <c r="M104" s="26"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="G105" s="74"/>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <f t="shared" si="9"/>
+        <v>44227</v>
+      </c>
+      <c r="B105" s="113">
+        <v>25120</v>
+      </c>
+      <c r="C105" s="69">
+        <f t="shared" si="7"/>
+        <v>-2.3517978620019437E-2</v>
+      </c>
+      <c r="D105" s="82">
+        <f t="shared" si="8"/>
+        <v>32412.743960333413</v>
+      </c>
+      <c r="E105" s="112">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="F105" s="85">
+        <v>20121</v>
+      </c>
+      <c r="G105" s="74">
+        <f t="shared" si="6"/>
+        <v>-3.6642733349839069E-3</v>
+      </c>
       <c r="J105" s="25"/>
       <c r="K105" s="26"/>
       <c r="L105" s="26"/>
       <c r="M105" s="26"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="G106" s="74"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <f t="shared" si="9"/>
+        <v>44255</v>
+      </c>
+      <c r="B106" s="113">
+        <v>25861</v>
+      </c>
+      <c r="C106" s="69">
+        <f t="shared" si="7"/>
+        <v>2.9498407643312102E-2</v>
+      </c>
+      <c r="D106" s="82">
+        <f t="shared" si="8"/>
+        <v>33306.509125435216</v>
+      </c>
+      <c r="E106" s="112">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="F106" s="85">
+        <v>20596</v>
+      </c>
+      <c r="G106" s="74">
+        <f t="shared" si="6"/>
+        <v>2.3607176581680833E-2</v>
+      </c>
       <c r="J106" s="25"/>
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
       <c r="M106" s="26"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C107" s="69"/>
-      <c r="E107" s="69"/>
-      <c r="G107" s="74"/>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <f t="shared" si="9"/>
+        <v>44286</v>
+      </c>
+      <c r="B107" s="113">
+        <v>27313</v>
+      </c>
+      <c r="C107" s="69">
+        <f t="shared" si="7"/>
+        <v>5.6146320714589533E-2</v>
+      </c>
+      <c r="D107" s="82">
+        <f t="shared" si="8"/>
+        <v>34765.186201076103</v>
+      </c>
+      <c r="E107" s="112">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="F107" s="85">
+        <v>21012</v>
+      </c>
+      <c r="G107" s="74">
+        <f t="shared" si="6"/>
+        <v>2.0198096717809283E-2</v>
+      </c>
       <c r="J107" s="25"/>
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
       <c r="M107" s="26"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C108" s="69"/>
       <c r="E108" s="69"/>
       <c r="G108" s="74"/>
@@ -6950,7 +7394,7 @@
       <c r="L108" s="26"/>
       <c r="M108" s="26"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C109" s="69"/>
       <c r="E109" s="69"/>
       <c r="G109" s="74"/>
@@ -6959,7 +7403,7 @@
       <c r="L109" s="26"/>
       <c r="M109" s="26"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C110" s="69"/>
       <c r="E110" s="69"/>
       <c r="G110" s="74"/>
@@ -6968,7 +7412,7 @@
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C111" s="69"/>
       <c r="E111" s="69"/>
       <c r="G111" s="74"/>
@@ -6977,75 +7421,102 @@
       <c r="L111" s="26"/>
       <c r="M111" s="26"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C112" s="69"/>
       <c r="E112" s="69"/>
       <c r="G112" s="74"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J112" s="25"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C113" s="69"/>
       <c r="E113" s="69"/>
       <c r="G113" s="74"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J113" s="25"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C114" s="69"/>
       <c r="E114" s="69"/>
       <c r="G114" s="74"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J114" s="25"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C115" s="69"/>
       <c r="E115" s="69"/>
       <c r="G115" s="74"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C116" s="69"/>
       <c r="E116" s="69"/>
       <c r="G116" s="74"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C117" s="69"/>
       <c r="E117" s="69"/>
       <c r="G117" s="74"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C118" s="69"/>
       <c r="E118" s="69"/>
       <c r="G118" s="74"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C119" s="69"/>
       <c r="E119" s="69"/>
       <c r="G119" s="74"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C120" s="69"/>
       <c r="E120" s="69"/>
       <c r="G120" s="74"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C121" s="69"/>
       <c r="E121" s="69"/>
       <c r="G121" s="74"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C122" s="69"/>
       <c r="E122" s="69"/>
       <c r="G122" s="74"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C123" s="69"/>
       <c r="E123" s="69"/>
       <c r="G123" s="74"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C124" s="69"/>
       <c r="E124" s="69"/>
       <c r="G124" s="74"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C125" s="69"/>
       <c r="E125" s="69"/>
       <c r="G125" s="74"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="G126" s="74"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C127" s="69"/>
+      <c r="E127" s="69"/>
+      <c r="G127" s="74"/>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C128" s="69"/>
+      <c r="E128" s="69"/>
+      <c r="G128" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7075,20 +7546,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC442BB-0865-4067-910E-4283A7FBDB8C}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -7099,49 +7570,49 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="119">
         <f>'CLT Portfolio'!C4</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="119" t="str">
         <f>'CLT Portfolio'!C5</f>
-        <v>$234.8B</v>
+        <v>$239.1B</v>
       </c>
       <c r="C3" s="95">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="119" t="str">
         <f>'CLT Portfolio'!C6</f>
-        <v>$53.1B</v>
+        <v>$63.1B</v>
       </c>
       <c r="C4" s="95">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>172</v>
       </c>
       <c r="B5" s="118">
         <f>'CLT Portfolio'!C7</f>
-        <v>28.02</v>
+        <v>30.15</v>
       </c>
       <c r="C5" s="95">
         <v>4</v>
@@ -7156,21 +7627,21 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6D9535-0EF6-4D41-870C-3BA8C0EA74F9}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -7181,20 +7652,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CLT Fact Sheet Backup'!I44</f>
         <v>Months on Offense</v>
       </c>
       <c r="B2" s="95">
         <f>'CLT Fact Sheet Backup'!J44</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I45</f>
         <v>Months on Defense</v>
@@ -7207,7 +7678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I46</f>
         <v>Defensive Shifts</v>
@@ -7220,105 +7691,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CLT Fact Sheet Backup'!I10</f>
         <v>Up Capture</v>
       </c>
       <c r="B5" s="95">
         <f>'CLT Fact Sheet Backup'!J10*100</f>
-        <v>118.6</v>
+        <v>121.35000000000001</v>
       </c>
       <c r="C5" s="95">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I11</f>
         <v>Down Capture</v>
       </c>
       <c r="B6" s="95">
         <f>'CLT Fact Sheet Backup'!J11*100</f>
-        <v>97.66</v>
+        <v>100.28999999999999</v>
       </c>
       <c r="C6" s="95">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CLT Fact Sheet Backup'!I7</f>
         <v>Alpha</v>
       </c>
       <c r="B7" s="95">
         <f>'CLT Fact Sheet Backup'!J7*100</f>
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="C7" s="95">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I8</f>
         <v>Beta</v>
       </c>
       <c r="B8" s="95">
         <f>'CLT Fact Sheet Backup'!J8</f>
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C8" s="95">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'CLT Fact Sheet Backup'!I9</f>
         <v>Sharpe Ratio</v>
       </c>
       <c r="B9" s="95">
         <f>'CLT Fact Sheet Backup'!J9</f>
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="C9" s="95">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'CLT Fact Sheet Backup'!I12</f>
         <v>Sortino Ratio</v>
       </c>
       <c r="B10" s="95">
         <f>'CLT Fact Sheet Backup'!J12</f>
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="C10" s="95">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'CLT Fact Sheet Backup'!I6</f>
         <v>Standard Deviation</v>
       </c>
       <c r="B11" s="95">
         <f>'CLT Fact Sheet Backup'!J6*100</f>
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="C11" s="95">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I13</f>
         <v>Information Ratio</v>
       </c>
       <c r="B12" s="95">
         <f>'CLT Fact Sheet Backup'!J13</f>
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="C12" s="95">
         <v>11</v>
@@ -7336,30 +7807,32 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="133" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="133" customWidth="1"/>
     <col min="4" max="4" width="3" style="133" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="3.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="7"/>
+    <col min="5" max="5" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="3.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="157"/>
+      <c r="C3" s="161"/>
       <c r="E3" s="34" t="s">
         <v>21</v>
       </c>
@@ -7369,38 +7842,38 @@
       </c>
       <c r="I3" s="35"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="F4" s="38">
-        <v>7.3999999999999996E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="111">
-        <v>7.3909565631935972E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>4.258492951073467E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" s="38">
-        <v>5.6000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>84</v>
@@ -7409,38 +7882,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F6" s="38">
-        <v>5.2999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>88</v>
       </c>
       <c r="I6" s="111">
-        <v>0.92609043436806404</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.95741507048926533</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="54">
-        <v>28.02</v>
+        <v>30.15</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="F7" s="38">
-        <v>4.5999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>102</v>
@@ -7449,10 +7922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="41"/>
       <c r="E8" s="36" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F8" s="38">
         <v>4.5999999999999999E-2</v>
@@ -7460,10 +7933,10 @@
       <c r="H8" s="36"/>
       <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="41"/>
       <c r="E9" s="36" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F9" s="38">
         <v>4.3999999999999997E-2</v>
@@ -7471,39 +7944,39 @@
       <c r="H9" s="36"/>
       <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="36" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F10" s="38">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11" s="36" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="F11" s="38">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E12" s="36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F12" s="38">
-        <v>4.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="36" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F13" s="38">
         <v>0.04</v>
@@ -7511,7 +7984,7 @@
       <c r="H13" s="36"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G14" s="42"/>
       <c r="H14" s="36"/>
       <c r="I14" s="38"/>
@@ -7530,60 +8003,64 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="95" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="95" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="95" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="95" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="95" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="95" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="95" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="95" customWidth="1"/>
     <col min="5" max="5" width="10" style="95" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="95" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="95" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="95" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="95" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="95"/>
-    <col min="11" max="11" width="19.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.109375" style="95"/>
-    <col min="16" max="16" width="24.44140625" style="95" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="95" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="95"/>
+    <col min="6" max="6" width="13.85546875" style="95" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="95" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="95" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="95"/>
+    <col min="11" max="11" width="19.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="95"/>
+    <col min="16" max="16" width="24.42578125" style="95" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="95" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110"/>
       <c r="C3" s="110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110"/>
       <c r="C4" s="110" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110"/>
       <c r="C5" s="110" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I5" s="122" t="s">
         <v>104</v>
       </c>
       <c r="J5" s="123">
-        <v>49.080311941270836</v>
+        <v>113.02049596065724</v>
       </c>
       <c r="K5" s="123">
-        <v>234797.53133746202</v>
+        <v>239078.00232842047</v>
       </c>
       <c r="L5" s="123">
-        <v>1.3225843397650634</v>
+        <v>1.2642526026926075</v>
       </c>
       <c r="P5" s="124"/>
       <c r="Q5" s="124"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110"/>
       <c r="C6" s="110" t="s">
         <v>30</v>
       </c>
@@ -7591,18 +8068,18 @@
         <v>105</v>
       </c>
       <c r="J6" s="123">
-        <v>28.02005017397677</v>
+        <v>30.153423366738906</v>
       </c>
       <c r="K6" s="123">
-        <v>53140.688303115006</v>
+        <v>63057.734284750004</v>
       </c>
       <c r="L6" s="123">
-        <v>1.3161123126209904</v>
+        <v>1.30417170795185</v>
       </c>
       <c r="P6" s="124"/>
       <c r="Q6" s="124"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="97" t="s">
         <v>31</v>
       </c>
@@ -7647,7 +8124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>70</v>
       </c>
@@ -7666,7 +8143,7 @@
       <c r="P8" s="124"/>
       <c r="Q8" s="124"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
         <v>152</v>
       </c>
@@ -7680,116 +8157,116 @@
       <c r="J9" s="126"/>
       <c r="K9" s="126"/>
       <c r="L9" s="126"/>
-      <c r="M9" s="158"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="127"/>
       <c r="P9" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="Q9" s="159">
-        <v>0.3741625709927936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="135">
+        <v>0.39549887680450768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D10" s="101">
-        <v>8900</v>
+        <v>14260</v>
       </c>
       <c r="E10" s="102">
-        <v>278.51</v>
+        <v>188.34</v>
       </c>
       <c r="F10" s="103">
-        <v>1505428.77</v>
+        <v>1354581.64</v>
       </c>
       <c r="G10" s="103">
-        <v>2478739</v>
+        <v>2685728.4</v>
       </c>
       <c r="H10" s="128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="129" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J10" s="130">
-        <v>38.852737725437045</v>
+        <v>15.016890403214504</v>
       </c>
       <c r="K10" s="130">
-        <v>16843.500027419999</v>
+        <v>63057.734284750004</v>
       </c>
       <c r="L10" s="130">
-        <v>0.4846044705417672</v>
-      </c>
-      <c r="M10" s="160">
-        <v>5.6496581262221748E-2</v>
+        <v>0.48624099902633999</v>
+      </c>
+      <c r="M10" s="136">
+        <v>5.4824474832928058E-2</v>
       </c>
       <c r="N10" s="131">
-        <v>5.6000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P10" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="159">
-        <v>0.24590735735442418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="135">
+        <v>0.24074370615626661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D11" s="101">
-        <v>14260</v>
+        <v>8900</v>
       </c>
       <c r="E11" s="102">
-        <v>164.46</v>
+        <v>298.3</v>
       </c>
       <c r="F11" s="103">
-        <v>1354581.64</v>
+        <v>1505428.77</v>
       </c>
       <c r="G11" s="103">
-        <v>2345199.6</v>
+        <v>2654870</v>
       </c>
       <c r="H11" s="128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="129" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J11" s="130">
-        <v>15.132499127574045</v>
+        <v>35.827057335621589</v>
       </c>
       <c r="K11" s="130">
-        <v>54975.737509000006</v>
+        <v>18070.201661399999</v>
       </c>
       <c r="L11" s="130">
-        <v>0.52932848743673955</v>
-      </c>
-      <c r="M11" s="160">
-        <v>5.3452888657309197E-2</v>
+        <v>0.4866179842191139</v>
+      </c>
+      <c r="M11" s="136">
+        <v>5.4194554259356875E-2</v>
       </c>
       <c r="N11" s="131">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="P11" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="159">
-        <v>0.14284647738186432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q11" s="135">
+        <v>0.16722112108136444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
         <v>149</v>
       </c>
@@ -7803,93 +8280,93 @@
         <v>17090</v>
       </c>
       <c r="E12" s="102">
-        <v>119.12</v>
+        <v>142</v>
       </c>
       <c r="F12" s="103">
         <v>1514728.03</v>
       </c>
       <c r="G12" s="103">
-        <v>2035760.8</v>
+        <v>2426780</v>
       </c>
       <c r="H12" s="128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="129" t="s">
         <v>111</v>
       </c>
       <c r="J12" s="130">
-        <v>59.256278374612073</v>
+        <v>75.660099155966236</v>
       </c>
       <c r="K12" s="130">
-        <v>15062.830480150002</v>
+        <v>18829.81356816</v>
       </c>
       <c r="L12" s="130">
-        <v>1.3397873345063083</v>
-      </c>
-      <c r="M12" s="160">
-        <v>4.6400014470117899E-2</v>
+        <v>1.0728128777931278</v>
+      </c>
+      <c r="M12" s="136">
+        <v>4.9538493555436644E-2</v>
       </c>
       <c r="N12" s="131">
-        <v>4.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P12" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="Q12" s="159">
-        <v>0.1292173883628509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="135">
+        <v>0.12558780656166135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="C13" s="114" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="D13" s="101">
-        <v>18808</v>
+        <v>7195</v>
       </c>
       <c r="E13" s="102">
-        <v>106.98</v>
+        <v>330.4</v>
       </c>
       <c r="F13" s="103">
-        <v>1647518.91</v>
+        <v>1426667.78</v>
       </c>
       <c r="G13" s="103">
-        <v>2012079.84</v>
+        <v>2377228</v>
       </c>
       <c r="H13" s="128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="129" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J13" s="130">
-        <v>89.328847835446823</v>
+        <v>29.715092266393548</v>
       </c>
       <c r="K13" s="130">
-        <v>120879.363</v>
+        <v>52550.241216569993</v>
       </c>
       <c r="L13" s="130">
-        <v>1.1942907326078285</v>
-      </c>
-      <c r="M13" s="160">
-        <v>4.58602669287239E-2</v>
+        <v>1.0408420335316659</v>
+      </c>
+      <c r="M13" s="136">
+        <v>4.8526975645836676E-2</v>
       </c>
       <c r="N13" s="131">
-        <v>4.5999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="P13" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="159">
-        <v>3.3952554954027429E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="135">
+        <v>4.2588527143855186E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100" t="s">
         <v>158</v>
       </c>
@@ -7900,84 +8377,84 @@
         <v>160</v>
       </c>
       <c r="D14" s="101">
-        <v>10996</v>
+        <v>11425</v>
       </c>
       <c r="E14" s="102">
-        <v>176.53</v>
+        <v>198.07</v>
       </c>
       <c r="F14" s="103">
-        <v>1114112.3600000001</v>
+        <v>1190790.1000000001</v>
       </c>
       <c r="G14" s="103">
-        <v>1941123.88</v>
+        <v>2262949.75</v>
       </c>
       <c r="H14" s="128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="129" t="s">
         <v>111</v>
       </c>
       <c r="J14" s="130">
-        <v>21.062059211164271</v>
+        <v>21.396920606084279</v>
       </c>
       <c r="K14" s="130">
-        <v>88721.977390970002</v>
+        <v>100201.9075328</v>
       </c>
       <c r="L14" s="130">
-        <v>1.5126714611378009</v>
-      </c>
-      <c r="M14" s="160">
-        <v>4.4243005425927934E-2</v>
+        <v>1.3435509105273569</v>
+      </c>
+      <c r="M14" s="136">
+        <v>4.6194183900745825E-2</v>
       </c>
       <c r="N14" s="131">
-        <v>4.3999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="P14" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="159">
-        <v>7.3913650954039442E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="135">
+        <v>2.8359962252344818E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D15" s="101">
-        <v>5503</v>
+        <v>19593</v>
       </c>
       <c r="E15" s="102">
-        <v>350.68</v>
+        <v>109.27</v>
       </c>
       <c r="F15" s="103">
-        <v>1617468.65</v>
+        <v>1724370.02</v>
       </c>
       <c r="G15" s="103">
-        <v>1929792.04</v>
+        <v>2140927.11</v>
       </c>
       <c r="H15" s="128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="129" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J15" s="130">
-        <v>19.963561906546165</v>
+        <v>110.60888368607645</v>
       </c>
       <c r="K15" s="130">
-        <v>329777.43936357601</v>
+        <v>128334.64747999999</v>
       </c>
       <c r="L15" s="130">
-        <v>1.3407540413889507</v>
-      </c>
-      <c r="M15" s="160">
-        <v>4.3984724816549338E-2</v>
+        <v>1.5778716508942847</v>
+      </c>
+      <c r="M15" s="136">
+        <v>4.370330390121667E-2</v>
       </c>
       <c r="N15" s="131">
         <v>4.3999999999999997E-2</v>
@@ -7985,131 +8462,131 @@
       <c r="P15" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="159">
+      <c r="Q15" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="100" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D16" s="101">
-        <v>9050</v>
+        <v>5503</v>
       </c>
       <c r="E16" s="102">
-        <v>212.7</v>
+        <v>372.07</v>
       </c>
       <c r="F16" s="103">
-        <v>1612618.62</v>
+        <v>1617468.65</v>
       </c>
       <c r="G16" s="103">
-        <v>1924935</v>
+        <v>2047501.21</v>
       </c>
       <c r="H16" s="128">
         <v>8</v>
       </c>
       <c r="I16" s="129" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J16" s="130">
-        <v>24.193065313716016</v>
+        <v>23.103556213569284</v>
       </c>
       <c r="K16" s="130">
-        <v>145950.63974400001</v>
+        <v>350099.0412714</v>
       </c>
       <c r="L16" s="130">
-        <v>1.7307692307692308</v>
-      </c>
-      <c r="M16" s="160">
-        <v>4.3874020884003856E-2</v>
+        <v>1.30417170795185</v>
+      </c>
+      <c r="M16" s="136">
+        <v>4.1796176619361344E-2</v>
       </c>
       <c r="N16" s="131">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P16" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="Q16" s="159">
+      <c r="Q16" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D17" s="101">
-        <v>7195</v>
+        <v>9050</v>
       </c>
       <c r="E17" s="102">
-        <v>258.91000000000003</v>
+        <v>217.07</v>
       </c>
       <c r="F17" s="103">
-        <v>1426667.78</v>
+        <v>1612618.62</v>
       </c>
       <c r="G17" s="103">
-        <v>1862857.45</v>
+        <v>1964483.5</v>
       </c>
       <c r="H17" s="128">
         <v>9</v>
       </c>
       <c r="I17" s="129" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J17" s="130">
-        <v>23.783133024589617</v>
+        <v>27.810716008233303</v>
       </c>
       <c r="K17" s="130">
-        <v>40039.073762740001</v>
+        <v>150709.67624625983</v>
       </c>
       <c r="L17" s="130">
-        <v>1.3502044531741424</v>
-      </c>
-      <c r="M17" s="160">
-        <v>4.245912026391653E-2</v>
+        <v>1.6751872032808632</v>
+      </c>
+      <c r="M17" s="136">
+        <v>4.0101514436624505E-2</v>
       </c>
       <c r="N17" s="131">
-        <v>4.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P17" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="159">
+      <c r="Q17" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D18" s="101">
-        <v>25669</v>
+        <v>11398</v>
       </c>
       <c r="E18" s="102">
-        <v>68.290000000000006</v>
+        <v>172.12</v>
       </c>
       <c r="F18" s="103">
-        <v>1606590.41</v>
+        <v>734436.02</v>
       </c>
       <c r="G18" s="103">
-        <v>1752936.01</v>
+        <v>1961823.76</v>
       </c>
       <c r="H18" s="128">
         <v>10</v>
@@ -8117,17 +8594,17 @@
       <c r="I18" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="130">
-        <v>162.98979613182274</v>
+      <c r="J18" s="130" t="s">
+        <v>153</v>
       </c>
       <c r="K18" s="130">
-        <v>80046.081170620004</v>
+        <v>25098.609567460004</v>
       </c>
       <c r="L18" s="130">
-        <v>0.3449827603372177</v>
-      </c>
-      <c r="M18" s="160">
-        <v>3.9953739274865063E-2</v>
+        <v>0.4929496543070131</v>
+      </c>
+      <c r="M18" s="136">
+        <v>4.0047220469784026E-2</v>
       </c>
       <c r="N18" s="131">
         <v>0.04</v>
@@ -8135,31 +8612,31 @@
       <c r="P18" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" s="159">
+      <c r="Q18" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D19" s="101">
-        <v>8261</v>
+        <v>10375</v>
       </c>
       <c r="E19" s="102">
-        <v>210.3</v>
+        <v>183.49</v>
       </c>
       <c r="F19" s="103">
-        <v>1309110.23</v>
+        <v>992255.66</v>
       </c>
       <c r="G19" s="103">
-        <v>1737288.3</v>
+        <v>1903708.75</v>
       </c>
       <c r="H19" s="95">
         <v>11</v>
@@ -8168,98 +8645,94 @@
         <v>111</v>
       </c>
       <c r="J19" s="126">
-        <v>20.754706965920001</v>
+        <v>22.62193124833361</v>
       </c>
       <c r="K19" s="126">
-        <v>51305.63909723</v>
+        <v>12205.888957600002</v>
       </c>
       <c r="L19" s="126">
-        <v>0.66852901887837579</v>
-      </c>
-      <c r="M19" s="158">
-        <v>3.9597089333268685E-2</v>
-      </c>
-      <c r="N19" s="127">
-        <v>0.04</v>
-      </c>
+        <v>0.53682628653266873</v>
+      </c>
+      <c r="M19" s="134">
+        <v>3.8860903602017216E-2</v>
+      </c>
+      <c r="N19" s="127"/>
       <c r="P19" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="159">
+      <c r="Q19" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" s="101">
-        <v>7311</v>
+        <v>12486</v>
       </c>
       <c r="E20" s="102">
-        <v>222.42</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="F20" s="103">
-        <v>1322272.67</v>
+        <v>1692742.13</v>
       </c>
       <c r="G20" s="103">
-        <v>1626112.62</v>
+        <v>1849301.46</v>
       </c>
       <c r="H20" s="95">
         <v>12</v>
       </c>
       <c r="I20" s="124" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J20" s="126">
-        <v>34.802748851489234</v>
+        <v>1403.1548696319803</v>
       </c>
       <c r="K20" s="126">
-        <v>1639682.5632768748</v>
+        <v>48015.111383520001</v>
       </c>
       <c r="L20" s="126">
-        <v>0.96368876080691634</v>
-      </c>
-      <c r="M20" s="158">
-        <v>3.7063121118179172E-2</v>
-      </c>
-      <c r="N20" s="127">
-        <v>3.6999999999999998E-2</v>
-      </c>
+        <v>0.32546786947754786</v>
+      </c>
+      <c r="M20" s="134">
+        <v>3.7750273390364832E-2</v>
+      </c>
+      <c r="N20" s="127"/>
       <c r="P20" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="Q20" s="159">
+      <c r="Q20" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D21" s="101">
-        <v>15460</v>
+        <v>13470</v>
       </c>
       <c r="E21" s="102">
-        <v>105.12</v>
+        <v>132.59</v>
       </c>
       <c r="F21" s="103">
-        <v>1350033.68</v>
+        <v>2055658.59</v>
       </c>
       <c r="G21" s="103">
-        <v>1625155.2</v>
+        <v>1785987.3</v>
       </c>
       <c r="H21" s="95">
         <v>13</v>
@@ -8268,94 +8741,90 @@
         <v>117</v>
       </c>
       <c r="J21" s="126">
-        <v>22.329623530718084</v>
+        <v>29.165070035602316</v>
       </c>
       <c r="K21" s="126">
-        <v>14525.990925764998</v>
+        <v>155893.28</v>
       </c>
       <c r="L21" s="126">
-        <v>1.3324841693711345</v>
-      </c>
-      <c r="M21" s="158">
-        <v>3.7041299152723313E-2</v>
-      </c>
-      <c r="N21" s="127">
-        <v>3.6999999999999998E-2</v>
-      </c>
+        <v>1.8705437606290665</v>
+      </c>
+      <c r="M21" s="134">
+        <v>3.6457824916614479E-2</v>
+      </c>
+      <c r="N21" s="127"/>
       <c r="P21" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="Q21" s="159">
+      <c r="Q21" s="135">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D22" s="101">
-        <v>12128</v>
+        <v>26862</v>
       </c>
       <c r="E22" s="102">
-        <v>132.69</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="F22" s="103">
-        <v>733127.58</v>
+        <v>1683425.34</v>
       </c>
       <c r="G22" s="103">
-        <v>1609264.32</v>
+        <v>1776921.3</v>
       </c>
       <c r="H22" s="95">
         <v>14</v>
       </c>
       <c r="I22" s="124" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J22" s="126">
-        <v>39.602814527132189</v>
+        <v>570.11539900134699</v>
       </c>
       <c r="K22" s="126">
-        <v>2192486.0788921998</v>
+        <v>79529.809760639997</v>
       </c>
       <c r="L22" s="126">
-        <v>0.62618208607064474</v>
-      </c>
-      <c r="M22" s="158">
-        <v>3.6679106766494586E-2</v>
-      </c>
-      <c r="N22" s="127">
-        <v>3.6999999999999998E-2</v>
-      </c>
+        <v>0.39251208995314441</v>
+      </c>
+      <c r="M22" s="134">
+        <v>3.6272758292291887E-2</v>
+      </c>
+      <c r="N22" s="127"/>
       <c r="P22" s="124"/>
       <c r="Q22" s="124"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D23" s="101">
-        <v>10358</v>
+        <v>7468</v>
       </c>
       <c r="E23" s="102">
-        <v>153.19999999999999</v>
+        <v>235.77</v>
       </c>
       <c r="F23" s="103">
-        <v>1234843.1200000001</v>
+        <v>1359936.97</v>
       </c>
       <c r="G23" s="103">
-        <v>1586845.6</v>
+        <v>1760730.36</v>
       </c>
       <c r="H23" s="95">
         <v>15</v>
@@ -8364,136 +8833,130 @@
         <v>117</v>
       </c>
       <c r="J23" s="126">
-        <v>31.635999335972585</v>
+        <v>35.862699210712847</v>
       </c>
       <c r="K23" s="126">
-        <v>17512.882484130001</v>
+        <v>1794511.855226543</v>
       </c>
       <c r="L23" s="126">
-        <v>1.472238715275854</v>
-      </c>
-      <c r="M23" s="158">
-        <v>3.6168128790888848E-2</v>
-      </c>
-      <c r="N23" s="127">
-        <v>3.5999999999999997E-2</v>
-      </c>
+        <v>0.88653217010272301</v>
+      </c>
+      <c r="M23" s="134">
+        <v>3.5942248408064037E-2</v>
+      </c>
+      <c r="N23" s="127"/>
       <c r="P23" s="124"/>
       <c r="Q23" s="124"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D24" s="101">
-        <v>13207</v>
+        <v>8641</v>
       </c>
       <c r="E24" s="102">
-        <v>117.93</v>
+        <v>202.62</v>
       </c>
       <c r="F24" s="103">
-        <v>1640396.61</v>
+        <v>1385558.86</v>
       </c>
       <c r="G24" s="103">
-        <v>1557501.51</v>
+        <v>1750839.42</v>
       </c>
       <c r="H24" s="95">
         <v>16</v>
       </c>
       <c r="I24" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J24" s="126">
-        <v>28.02005017397677</v>
+        <v>19.137606319675569</v>
       </c>
       <c r="K24" s="126">
-        <v>48439.121956280003</v>
+        <v>48582.606368600005</v>
       </c>
       <c r="L24" s="126">
-        <v>1.8738274395505059</v>
-      </c>
-      <c r="M24" s="158">
-        <v>3.5499304535793433E-2</v>
-      </c>
-      <c r="N24" s="127">
-        <v>3.5000000000000003E-2</v>
-      </c>
+        <v>0.73873429079321273</v>
+      </c>
+      <c r="M24" s="134">
+        <v>3.5740342068203305E-2</v>
+      </c>
+      <c r="N24" s="127"/>
       <c r="P24" s="124"/>
       <c r="Q24" s="124"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="100" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="101">
-        <v>9857</v>
+        <v>13207</v>
       </c>
       <c r="E25" s="102">
-        <v>157.51</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="F25" s="103">
-        <v>915122.46</v>
+        <v>1640396.61</v>
       </c>
       <c r="G25" s="103">
-        <v>1552576.07</v>
+        <v>1703967.14</v>
       </c>
       <c r="H25" s="95">
         <v>17</v>
       </c>
       <c r="I25" s="124" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J25" s="126">
-        <v>19.624511087494763</v>
+        <v>32.22872736896629</v>
       </c>
       <c r="K25" s="126">
-        <v>10688.44698328</v>
+        <v>54827.292137529999</v>
       </c>
       <c r="L25" s="126">
-        <v>0.63484000309592992</v>
-      </c>
-      <c r="M25" s="158">
-        <v>3.5387041598383649E-2</v>
-      </c>
-      <c r="N25" s="127">
-        <v>3.5000000000000003E-2</v>
-      </c>
+        <v>1.6780847806532984</v>
+      </c>
+      <c r="M25" s="134">
+        <v>3.4783525982398818E-2</v>
+      </c>
+      <c r="N25" s="127"/>
       <c r="P25" s="124"/>
       <c r="Q25" s="124"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="100" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D26" s="101">
-        <v>7206</v>
+        <v>5524</v>
       </c>
       <c r="E26" s="102">
-        <v>214.58</v>
+        <v>305.25</v>
       </c>
       <c r="F26" s="103">
-        <v>1339703.49</v>
+        <v>1329724.8899999999</v>
       </c>
       <c r="G26" s="103">
-        <v>1546263.48</v>
+        <v>1686201</v>
       </c>
       <c r="H26" s="95">
         <v>18</v>
@@ -8502,90 +8965,86 @@
         <v>111</v>
       </c>
       <c r="J26" s="126">
-        <v>32.420402256497809</v>
+        <v>25.638993453573079</v>
       </c>
       <c r="K26" s="126">
-        <v>156398.79638119999</v>
+        <v>331672.74580102001</v>
       </c>
       <c r="L26" s="126">
-        <v>2.3820867772229817</v>
-      </c>
-      <c r="M26" s="158">
-        <v>3.524316208791075E-2</v>
-      </c>
-      <c r="N26" s="127">
-        <v>3.5000000000000003E-2</v>
-      </c>
+        <v>1.9971422846144196</v>
+      </c>
+      <c r="M26" s="134">
+        <v>3.4420861129426987E-2</v>
+      </c>
+      <c r="N26" s="127"/>
       <c r="P26" s="124"/>
       <c r="Q26" s="124"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="100" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D27" s="101">
-        <v>15582</v>
+        <v>13335</v>
       </c>
       <c r="E27" s="102">
-        <v>95.6</v>
+        <v>122.15</v>
       </c>
       <c r="F27" s="103">
-        <v>1270021.67</v>
+        <v>896072.58</v>
       </c>
       <c r="G27" s="103">
-        <v>1489639.2</v>
+        <v>1628870.25</v>
       </c>
       <c r="H27" s="95">
         <v>19</v>
       </c>
       <c r="I27" s="124" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J27" s="126">
-        <v>32.835948373482957</v>
+        <v>33.33488085657298</v>
       </c>
       <c r="K27" s="126">
-        <v>24941.587926869201</v>
+        <v>2063926.8434304001</v>
       </c>
       <c r="L27" s="126">
-        <v>1.2997404558708463</v>
-      </c>
-      <c r="M27" s="158">
-        <v>3.3952554954027429E-2</v>
-      </c>
-      <c r="N27" s="127">
-        <v>3.4000000000000002E-2</v>
-      </c>
+        <v>0.66774591307955566</v>
+      </c>
+      <c r="M27" s="134">
+        <v>3.3250553565740394E-2</v>
+      </c>
+      <c r="N27" s="127"/>
       <c r="P27" s="124"/>
       <c r="Q27" s="124"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="100" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D28" s="101">
-        <v>5524</v>
+        <v>7206</v>
       </c>
       <c r="E28" s="102">
-        <v>265.62</v>
+        <v>224.14</v>
       </c>
       <c r="F28" s="103">
-        <v>1329724.8899999999</v>
+        <v>1339703.49</v>
       </c>
       <c r="G28" s="103">
-        <v>1467284.88</v>
+        <v>1615152.84</v>
       </c>
       <c r="H28" s="95">
         <v>20</v>
@@ -8594,44 +9053,42 @@
         <v>111</v>
       </c>
       <c r="J28" s="126">
-        <v>22.764706199144413</v>
+        <v>36.593293599735723</v>
       </c>
       <c r="K28" s="126">
-        <v>283361.32555920002</v>
+        <v>168431.75593366299</v>
       </c>
       <c r="L28" s="126">
-        <v>2.2267821547548268</v>
-      </c>
-      <c r="M28" s="158">
-        <v>3.3443044813410885E-2</v>
-      </c>
-      <c r="N28" s="127">
-        <v>3.3000000000000002E-2</v>
-      </c>
+        <v>2.2309829291036838</v>
+      </c>
+      <c r="M28" s="134">
+        <v>3.2970536495020228E-2</v>
+      </c>
+      <c r="N28" s="127"/>
       <c r="P28" s="124"/>
       <c r="Q28" s="124"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="100" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D29" s="101">
         <v>5153</v>
       </c>
       <c r="E29" s="102">
-        <v>273.97000000000003</v>
+        <v>311.58999999999997</v>
       </c>
       <c r="F29" s="103">
         <v>1410618.3</v>
       </c>
       <c r="G29" s="103">
-        <v>1411767.41</v>
+        <v>1605623.27</v>
       </c>
       <c r="H29" s="95">
         <v>21</v>
@@ -8640,90 +9097,86 @@
         <v>114</v>
       </c>
       <c r="J29" s="126">
-        <v>27.899906627051802</v>
+        <v>31.604591981623024</v>
       </c>
       <c r="K29" s="126">
-        <v>10256.96420412</v>
+        <v>11915.505155699999</v>
       </c>
       <c r="L29" s="126">
-        <v>1.1497685321259363</v>
-      </c>
-      <c r="M29" s="158">
-        <v>3.2177664611893919E-2</v>
-      </c>
-      <c r="N29" s="127">
-        <v>3.2000000000000001E-2</v>
-      </c>
+        <v>0.97536259798159541</v>
+      </c>
+      <c r="M29" s="134">
+        <v>3.2776006895290921E-2</v>
+      </c>
+      <c r="N29" s="127"/>
       <c r="P29" s="124"/>
       <c r="Q29" s="124"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="100" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C30" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="101">
-        <v>22478</v>
+        <v>10358</v>
       </c>
       <c r="E30" s="102">
-        <v>62.03</v>
+        <v>153.1</v>
       </c>
       <c r="F30" s="103">
-        <v>1469550.48</v>
+        <v>1234843.1200000001</v>
       </c>
       <c r="G30" s="103">
-        <v>1394310.34</v>
+        <v>1585809.8</v>
       </c>
       <c r="H30" s="95">
         <v>22</v>
       </c>
       <c r="I30" s="124" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J30" s="126">
-        <v>33.361909734905282</v>
+        <v>30.470387411538152</v>
       </c>
       <c r="K30" s="126">
-        <v>137709.25750692</v>
+        <v>17892.654208754997</v>
       </c>
       <c r="L30" s="126">
-        <v>2.9537250419482124</v>
-      </c>
-      <c r="M30" s="158">
-        <v>3.1779774888992363E-2</v>
-      </c>
-      <c r="N30" s="127">
-        <v>3.2000000000000001E-2</v>
-      </c>
+        <v>1.4658771051011252</v>
+      </c>
+      <c r="M30" s="134">
+        <v>3.2371549360654145E-2</v>
+      </c>
+      <c r="N30" s="127"/>
       <c r="P30" s="124"/>
       <c r="Q30" s="124"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D31" s="101">
-        <v>3868</v>
+        <v>15460</v>
       </c>
       <c r="E31" s="102">
-        <v>354.98</v>
+        <v>96.28</v>
       </c>
       <c r="F31" s="103">
-        <v>1666110.15</v>
+        <v>1350033.68</v>
       </c>
       <c r="G31" s="103">
-        <v>1373062.64</v>
+        <v>1488488.8</v>
       </c>
       <c r="H31" s="95">
         <v>23</v>
@@ -8732,377 +9185,389 @@
         <v>114</v>
       </c>
       <c r="J31" s="126">
-        <v>11.84646516464116</v>
+        <v>20.599076556064283</v>
       </c>
       <c r="K31" s="126">
-        <v>96433.064078490002</v>
+        <v>13689.3858621</v>
       </c>
       <c r="L31" s="126">
-        <v>2.7852727611921466</v>
-      </c>
-      <c r="M31" s="158">
-        <v>3.1295487350173103E-2</v>
-      </c>
-      <c r="N31" s="127">
-        <v>3.1E-2</v>
-      </c>
+        <v>1.404233372665876</v>
+      </c>
+      <c r="M31" s="134">
+        <v>3.0384910385836218E-2</v>
+      </c>
+      <c r="N31" s="127"/>
       <c r="P31" s="124"/>
       <c r="Q31" s="124"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D32" s="101">
-        <v>10198</v>
+        <v>3868</v>
       </c>
       <c r="E32" s="102">
-        <v>132.4</v>
+        <v>369.5</v>
       </c>
       <c r="F32" s="103">
-        <v>562339.46</v>
+        <v>1666110.15</v>
       </c>
       <c r="G32" s="103">
-        <v>1350215.2</v>
+        <v>1429226</v>
       </c>
       <c r="H32" s="95">
         <v>24</v>
       </c>
       <c r="I32" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="J32" s="126" t="s">
-        <v>153</v>
+        <v>114</v>
+      </c>
+      <c r="J32" s="126">
+        <v>12.694305923132267</v>
       </c>
       <c r="K32" s="126">
-        <v>18557.617694549997</v>
+        <v>103764.5516877</v>
       </c>
       <c r="L32" s="126">
-        <v>0.77752793305836454</v>
-      </c>
-      <c r="M32" s="158">
-        <v>3.0774737787353568E-2</v>
-      </c>
-      <c r="N32" s="127">
-        <v>3.1E-2</v>
-      </c>
+        <v>2.6322858773365461</v>
+      </c>
+      <c r="M32" s="134">
+        <v>2.9175163381213991E-2</v>
+      </c>
+      <c r="N32" s="127"/>
       <c r="P32" s="124"/>
       <c r="Q32" s="124"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D33" s="101">
-        <v>7736</v>
+        <v>22478</v>
       </c>
       <c r="E33" s="102">
-        <v>131.91999999999999</v>
+        <v>63.13</v>
       </c>
       <c r="F33" s="103">
-        <v>1074822.7</v>
+        <v>1469550.48</v>
       </c>
       <c r="G33" s="103">
-        <v>1020533.12</v>
+        <v>1419036.14</v>
       </c>
       <c r="H33" s="95">
         <v>25</v>
       </c>
       <c r="I33" s="124" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J33" s="126">
-        <v>316.38540316989344</v>
+        <v>40.294395459817714</v>
       </c>
       <c r="K33" s="126">
-        <v>40544.772683503194</v>
+        <v>141139.56699647999</v>
       </c>
       <c r="L33" s="126">
-        <v>0.7679373332388586</v>
-      </c>
-      <c r="M33" s="158">
-        <v>2.3260469272831347E-2</v>
-      </c>
-      <c r="N33" s="127">
-        <v>2.3E-2</v>
-      </c>
+        <v>2.9123140093579023</v>
+      </c>
+      <c r="M33" s="134">
+        <v>2.8967155109371957E-2</v>
+      </c>
+      <c r="N33" s="127"/>
       <c r="P33" s="124"/>
       <c r="Q33" s="124"/>
     </row>
-    <row r="34" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="105">
-        <v>271798</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="107">
-        <v>32027512.66</v>
-      </c>
-      <c r="G34" s="107">
-        <v>40631243.509999998</v>
-      </c>
-      <c r="H34" s="95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="124"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="158"/>
+    <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="101">
+        <v>15582</v>
+      </c>
+      <c r="E34" s="102">
+        <v>89.16</v>
+      </c>
+      <c r="F34" s="103">
+        <v>1270021.67</v>
+      </c>
+      <c r="G34" s="103">
+        <v>1389291.12</v>
+      </c>
+      <c r="H34" s="95">
+        <v>26</v>
+      </c>
+      <c r="I34" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="126">
+        <v>29.83645932193966</v>
+      </c>
+      <c r="K34" s="126">
+        <v>23999.332471459998</v>
+      </c>
+      <c r="L34" s="126">
+        <v>1.411424708401211</v>
+      </c>
+      <c r="M34" s="134">
+        <v>2.8359962252344818E-2</v>
+      </c>
       <c r="N34" s="127"/>
       <c r="P34" s="124"/>
       <c r="Q34" s="124"/>
     </row>
-    <row r="35" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="95" t="e">
-        <v>#N/A</v>
+    <row r="35" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="105">
+        <v>295887</v>
+      </c>
+      <c r="E35" s="106"/>
+      <c r="F35" s="107">
+        <v>35457742.149999999</v>
+      </c>
+      <c r="G35" s="107">
+        <v>46901446.68</v>
       </c>
       <c r="I35" s="124"/>
       <c r="J35" s="126"/>
       <c r="K35" s="126"/>
       <c r="L35" s="126"/>
-      <c r="M35" s="158"/>
+      <c r="M35" s="134"/>
       <c r="N35" s="127"/>
       <c r="P35" s="124"/>
       <c r="Q35" s="124"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="101">
-        <v>3242718.74</v>
-      </c>
-      <c r="E36" s="102">
-        <v>100</v>
-      </c>
-      <c r="F36" s="103">
-        <v>3242718.74</v>
-      </c>
-      <c r="G36" s="103">
-        <v>3242718.74</v>
-      </c>
-      <c r="H36" s="128">
-        <v>1</v>
-      </c>
-      <c r="I36" s="161" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="160">
-        <v>7.3909565631935972E-2</v>
-      </c>
-      <c r="N36" s="131">
-        <v>7.3999999999999996E-2</v>
-      </c>
+    <row r="36" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="127"/>
       <c r="P36" s="124"/>
       <c r="Q36" s="124"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104" t="s">
+    <row r="37" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="101">
+        <v>2086140.45</v>
+      </c>
+      <c r="E37" s="102">
+        <v>100</v>
+      </c>
+      <c r="F37" s="103">
+        <v>2086140.45</v>
+      </c>
+      <c r="G37" s="103">
+        <v>2086140.45</v>
+      </c>
+      <c r="H37" s="128">
+        <v>7</v>
+      </c>
+      <c r="I37" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
+      <c r="M37" s="136">
+        <v>4.258492951073467E-2</v>
+      </c>
+      <c r="N37" s="131">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="105">
-        <v>3242718.74</v>
-      </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107">
-        <v>3242718.74</v>
-      </c>
-      <c r="G37" s="107">
-        <v>3242718.74</v>
-      </c>
-      <c r="H37" s="95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I37" s="124"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="127"/>
-    </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="95" t="e">
-        <v>#N/A</v>
+      <c r="D38" s="105">
+        <v>2086140.45</v>
+      </c>
+      <c r="E38" s="106"/>
+      <c r="F38" s="107">
+        <v>2086140.45</v>
+      </c>
+      <c r="G38" s="107">
+        <v>2086140.45</v>
       </c>
       <c r="I38" s="124"/>
       <c r="J38" s="126"/>
       <c r="K38" s="126"/>
       <c r="L38" s="126"/>
-      <c r="M38" s="158"/>
+      <c r="M38" s="134"/>
       <c r="N38" s="127"/>
     </row>
-    <row r="39" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="101">
-        <v>179.24</v>
-      </c>
-      <c r="E39" s="102">
-        <v>1</v>
-      </c>
-      <c r="F39" s="103">
-        <v>179.24</v>
-      </c>
-      <c r="G39" s="103">
-        <v>179.24</v>
-      </c>
-      <c r="H39" s="95">
-        <v>26</v>
-      </c>
-      <c r="I39" s="161" t="s">
-        <v>71</v>
-      </c>
+    <row r="39" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="126"/>
       <c r="K39" s="126"/>
       <c r="L39" s="126"/>
-      <c r="M39" s="158">
-        <v>4.0853221034730271E-6</v>
-      </c>
+      <c r="M39" s="134"/>
       <c r="N39" s="127"/>
     </row>
-    <row r="40" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="105">
-        <v>179.24</v>
-      </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107">
-        <v>179.24</v>
-      </c>
-      <c r="G40" s="107">
-        <v>179.24</v>
-      </c>
-      <c r="H40" s="95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="124"/>
+    <row r="40" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="101">
+        <v>176.24</v>
+      </c>
+      <c r="E40" s="102">
+        <v>1</v>
+      </c>
+      <c r="F40" s="103">
+        <v>176.24</v>
+      </c>
+      <c r="G40" s="103">
+        <v>176.24</v>
+      </c>
+      <c r="H40" s="95">
+        <v>27</v>
+      </c>
+      <c r="I40" s="137" t="s">
+        <v>71</v>
+      </c>
       <c r="J40" s="126"/>
       <c r="K40" s="126"/>
       <c r="L40" s="126"/>
-      <c r="M40" s="158"/>
+      <c r="M40" s="134">
+        <v>3.5976331205177865E-6</v>
+      </c>
       <c r="N40" s="127"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="108">
-        <v>3514695.98</v>
+        <v>73</v>
+      </c>
+      <c r="D41" s="105">
+        <v>176.24</v>
       </c>
       <c r="E41" s="106"/>
-      <c r="F41" s="109">
-        <v>35270410.640000001</v>
-      </c>
-      <c r="G41" s="109">
-        <v>43874141.490000002</v>
-      </c>
-      <c r="H41" s="95" t="e">
-        <v>#N/A</v>
+      <c r="F41" s="107">
+        <v>176.24</v>
+      </c>
+      <c r="G41" s="107">
+        <v>176.24</v>
       </c>
       <c r="I41" s="124"/>
       <c r="J41" s="126"/>
       <c r="K41" s="126"/>
       <c r="L41" s="126"/>
-      <c r="M41" s="158"/>
+      <c r="M41" s="134"/>
       <c r="N41" s="127"/>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="110"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
+    <row r="42" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="108">
+        <v>2382203.69</v>
+      </c>
+      <c r="E42" s="106"/>
+      <c r="F42" s="109">
+        <v>37544058.840000004</v>
+      </c>
+      <c r="G42" s="109">
+        <v>48987763.369999997</v>
+      </c>
       <c r="I42" s="124"/>
       <c r="J42" s="126"/>
       <c r="K42" s="126"/>
       <c r="L42" s="126"/>
-      <c r="M42" s="158"/>
+      <c r="M42" s="134"/>
       <c r="N42" s="127"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="108">
-        <v>3514695.98</v>
-      </c>
-      <c r="E43" s="106"/>
-      <c r="F43" s="109">
-        <v>35270410.640000001</v>
-      </c>
-      <c r="G43" s="109">
-        <v>43874141.490000002</v>
-      </c>
+    <row r="43" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="110"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
       <c r="I43" s="124"/>
       <c r="J43" s="126"/>
       <c r="K43" s="126"/>
       <c r="L43" s="126"/>
-      <c r="M43" s="158"/>
+      <c r="M43" s="134"/>
       <c r="N43" s="127"/>
     </row>
-    <row r="49" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="108">
+        <v>2382203.69</v>
+      </c>
+      <c r="E44" s="106"/>
+      <c r="F44" s="109">
+        <v>37544058.840000004</v>
+      </c>
+      <c r="G44" s="109">
+        <v>48987763.369999997</v>
+      </c>
+    </row>
+    <row r="49" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9115,79 +9580,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:S134"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="95" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="95"/>
+    <col min="1" max="1" width="46.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="D6" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="E6" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="F6" s="95" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="116">
-        <v>0.15010000000000001</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="C7" s="116">
-        <v>9.0300000000000005E-2</v>
+        <v>0.42130000000000001</v>
       </c>
       <c r="D7" s="116">
-        <v>9.9099999999999994E-2</v>
+        <v>0.1067</v>
       </c>
       <c r="E7" s="116">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="F7" s="116"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="F7" s="116">
+        <v>8.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" s="95" t="s">
         <v>47</v>
       </c>
@@ -9240,1367 +9710,1447 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="95">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="95">
+        <v>-0.37</v>
+      </c>
+      <c r="D12" s="95">
+        <v>2.36</v>
+      </c>
+      <c r="E12" s="95">
+        <v>2.02</v>
+      </c>
+      <c r="F12" s="95">
+        <v>4.05</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="95">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="95">
         <v>2020</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C13" s="95">
         <v>-0.35</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D13" s="95">
         <v>-4.67</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E13" s="95">
         <v>-11.37</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F13" s="95">
         <v>-15.8</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G13" s="95">
         <v>8.5299999999999994</v>
       </c>
-      <c r="H12" s="95">
+      <c r="H13" s="95">
         <v>4.08</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I13" s="95">
         <v>2.33</v>
       </c>
-      <c r="J12" s="95">
+      <c r="J13" s="95">
         <v>15.58</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K13" s="95">
         <v>4.13</v>
       </c>
-      <c r="L12" s="95">
+      <c r="L13" s="95">
         <v>3.72</v>
       </c>
-      <c r="M12" s="95">
+      <c r="M13" s="95">
         <v>-2.09</v>
       </c>
-      <c r="N12" s="95">
+      <c r="N13" s="95">
         <v>5.75</v>
       </c>
-      <c r="O12" s="95">
+      <c r="O13" s="95">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P13" s="95">
         <v>8.9700000000000006</v>
       </c>
-      <c r="Q12" s="95">
+      <c r="Q13" s="95">
         <v>3.75</v>
       </c>
-      <c r="R12" s="95">
+      <c r="R13" s="95">
         <v>11.75</v>
       </c>
-      <c r="S12" s="95">
+      <c r="S13" s="95">
         <v>15.01</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="95">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="95">
         <v>2019</v>
       </c>
-      <c r="C13" s="95">
+      <c r="C14" s="95">
         <v>6.05</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D14" s="95">
         <v>1.9</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E14" s="95">
         <v>1.23</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F14" s="95">
         <v>9.39</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G14" s="95">
         <v>2.31</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H14" s="95">
         <v>-3.57</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I14" s="95">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J14" s="95">
         <v>3.25</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K14" s="95">
         <v>0.25</v>
       </c>
-      <c r="L13" s="95">
+      <c r="L14" s="95">
         <v>-0.82</v>
       </c>
-      <c r="M13" s="95">
+      <c r="M14" s="95">
         <v>0.9</v>
       </c>
-      <c r="N13" s="95">
+      <c r="N14" s="95">
         <v>0.33</v>
       </c>
-      <c r="O13" s="95">
+      <c r="O14" s="95">
         <v>1.45</v>
       </c>
-      <c r="P13" s="95">
+      <c r="P14" s="95">
         <v>1.91</v>
       </c>
-      <c r="Q13" s="95">
+      <c r="Q14" s="95">
         <v>2.4500000000000002</v>
       </c>
-      <c r="R13" s="95">
+      <c r="R14" s="95">
         <v>5.91</v>
       </c>
-      <c r="S13" s="95">
+      <c r="S14" s="95">
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="95">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="95">
         <v>2018</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C15" s="95">
         <v>3.28</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D15" s="95">
         <v>-2.94</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E15" s="95">
         <v>-0.75</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F15" s="95">
         <v>-0.5</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G15" s="95">
         <v>0.35</v>
       </c>
-      <c r="H14" s="95">
+      <c r="H15" s="95">
         <v>0.39</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I15" s="95">
         <v>-0.08</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J15" s="95">
         <v>0.66</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K15" s="95">
         <v>1.95</v>
       </c>
-      <c r="L14" s="95">
+      <c r="L15" s="95">
         <v>0.39</v>
       </c>
-      <c r="M14" s="95">
+      <c r="M15" s="95">
         <v>0.12</v>
       </c>
-      <c r="N14" s="95">
+      <c r="N15" s="95">
         <v>2.4700000000000002</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O15" s="95">
         <v>-5.04</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P15" s="95">
         <v>1.05</v>
       </c>
-      <c r="Q14" s="95">
+      <c r="Q15" s="95">
         <v>-4.6399999999999997</v>
       </c>
-      <c r="R14" s="95">
+      <c r="R15" s="95">
         <v>-8.5</v>
       </c>
-      <c r="S14" s="95">
+      <c r="S15" s="95">
         <v>-6.1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="95">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="95">
         <v>2017</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C16" s="95">
         <v>2.15</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D16" s="95">
         <v>2.08</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E16" s="95">
         <v>0.76</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F16" s="95">
         <v>5.07</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G16" s="95">
         <v>1.25</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H16" s="95">
         <v>1.35</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I16" s="95">
         <v>0.38</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J16" s="95">
         <v>3.01</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K16" s="95">
         <v>1.83</v>
       </c>
-      <c r="L15" s="95">
+      <c r="L16" s="95">
         <v>0.37</v>
       </c>
-      <c r="M15" s="95">
+      <c r="M16" s="95">
         <v>1.17</v>
       </c>
-      <c r="N15" s="95">
+      <c r="N16" s="95">
         <v>3.41</v>
       </c>
-      <c r="O15" s="95">
+      <c r="O16" s="95">
         <v>1.17</v>
       </c>
-      <c r="P15" s="95">
+      <c r="P16" s="95">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="Q16" s="95">
         <v>0.88</v>
       </c>
-      <c r="R15" s="95">
+      <c r="R16" s="95">
         <v>3.17</v>
       </c>
-      <c r="S15" s="95">
+      <c r="S16" s="95">
         <v>15.47</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="95">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="95">
         <v>2016</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C17" s="95">
         <v>-3.74</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D17" s="95">
         <v>-0.03</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E17" s="95">
         <v>4.88</v>
       </c>
-      <c r="F16" s="95">
+      <c r="F17" s="95">
         <v>0.93</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G17" s="95">
         <v>1.38</v>
       </c>
-      <c r="H16" s="95">
+      <c r="H17" s="95">
         <v>0.3</v>
       </c>
-      <c r="I16" s="95">
+      <c r="I17" s="95">
         <v>0.27</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J17" s="95">
         <v>1.95</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K17" s="95">
         <v>3</v>
       </c>
-      <c r="L16" s="95">
+      <c r="L17" s="95">
         <v>0.27</v>
       </c>
-      <c r="M16" s="95">
+      <c r="M17" s="95">
         <v>0.61</v>
       </c>
-      <c r="N16" s="95">
+      <c r="N17" s="95">
         <v>3.9</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O17" s="95">
         <v>-1.32</v>
       </c>
-      <c r="P16" s="95">
+      <c r="P17" s="95">
         <v>0.38</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q17" s="95">
         <v>1.17</v>
       </c>
-      <c r="R16" s="95">
+      <c r="R17" s="95">
         <v>0.22</v>
       </c>
-      <c r="S16" s="95">
+      <c r="S17" s="95">
         <v>7.16</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="95">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="95">
         <v>2015</v>
       </c>
-      <c r="C17" s="95">
+      <c r="C18" s="95">
         <v>-0.11</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D18" s="95">
         <v>2.76</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E18" s="95">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F18" s="95">
         <v>1.48</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G18" s="95">
         <v>1.21</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H18" s="95">
         <v>0.21</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I18" s="95">
         <v>-1.85</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J18" s="95">
         <v>-0.46</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K18" s="95">
         <v>0.52</v>
       </c>
-      <c r="L17" s="95">
+      <c r="L18" s="95">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="M17" s="95">
+      <c r="M18" s="95">
         <v>-2.5</v>
       </c>
-      <c r="N17" s="95">
+      <c r="N18" s="95">
         <v>-6.03</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O18" s="95">
         <v>4.83</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P18" s="95">
         <v>-0.53</v>
       </c>
-      <c r="Q17" s="95">
+      <c r="Q18" s="95">
         <v>-1.53</v>
       </c>
-      <c r="R17" s="95">
+      <c r="R18" s="95">
         <v>2.69</v>
       </c>
-      <c r="S17" s="95">
+      <c r="S18" s="95">
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="95">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="95">
         <v>2014</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C19" s="95">
         <v>-1.68</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D19" s="95">
         <v>3.79</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E19" s="95">
         <v>-0.09</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F19" s="95">
         <v>1.95</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G19" s="95">
         <v>0.15</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H19" s="95">
         <v>2</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I19" s="95">
         <v>1.78</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J19" s="95">
         <v>3.97</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K19" s="95">
         <v>-1.47</v>
       </c>
-      <c r="L18" s="95">
+      <c r="L19" s="95">
         <v>2.0499999999999998</v>
       </c>
-      <c r="M18" s="95">
+      <c r="M19" s="95">
         <v>-2.37</v>
       </c>
-      <c r="N18" s="95">
+      <c r="N19" s="95">
         <v>-1.84</v>
       </c>
-      <c r="O18" s="95">
+      <c r="O19" s="95">
         <v>0.61</v>
       </c>
-      <c r="P18" s="95">
+      <c r="P19" s="95">
         <v>0.89</v>
       </c>
-      <c r="Q18" s="95">
+      <c r="Q19" s="95">
         <v>-1.23</v>
       </c>
-      <c r="R18" s="95">
+      <c r="R19" s="95">
         <v>0.26</v>
       </c>
-      <c r="S18" s="95">
+      <c r="S19" s="95">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="95">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="95">
         <v>2013</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C20" s="95">
         <v>3.07</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D20" s="95">
         <v>0.1</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E20" s="95">
         <v>1.67</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F20" s="95">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G20" s="95">
         <v>1.38</v>
       </c>
-      <c r="H19" s="95">
+      <c r="H20" s="95">
         <v>-0.04</v>
       </c>
-      <c r="I19" s="95">
+      <c r="I20" s="95">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J20" s="95">
         <v>-0.99</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K20" s="95">
         <v>3.65</v>
       </c>
-      <c r="L19" s="95">
+      <c r="L20" s="95">
         <v>-1.59</v>
       </c>
-      <c r="M19" s="95">
+      <c r="M20" s="95">
         <v>3.51</v>
       </c>
-      <c r="N19" s="95">
+      <c r="N20" s="95">
         <v>5.59</v>
       </c>
-      <c r="O19" s="95">
+      <c r="O20" s="95">
         <v>2.82</v>
       </c>
-      <c r="P19" s="95">
+      <c r="P20" s="95">
         <v>0.95</v>
       </c>
-      <c r="Q19" s="95">
+      <c r="Q20" s="95">
         <v>1.51</v>
       </c>
-      <c r="R19" s="95">
+      <c r="R20" s="95">
         <v>5.37</v>
       </c>
-      <c r="S19" s="95">
+      <c r="S20" s="95">
         <v>15.55</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="95">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="95">
         <v>2012</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="95" t="s">
+      <c r="F21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="95" t="s">
+      <c r="J21" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K21" s="95">
         <v>1.23</v>
       </c>
-      <c r="L20" s="95">
+      <c r="L21" s="95">
         <v>2.06</v>
       </c>
-      <c r="M20" s="95">
+      <c r="M21" s="95">
         <v>2.17</v>
       </c>
-      <c r="N20" s="95">
+      <c r="N21" s="95">
         <v>5.55</v>
       </c>
-      <c r="O20" s="95">
+      <c r="O21" s="95">
         <v>-0.69</v>
       </c>
-      <c r="P20" s="95">
+      <c r="P21" s="95">
         <v>0.88</v>
       </c>
-      <c r="Q20" s="95">
+      <c r="Q21" s="95">
         <v>1.36</v>
       </c>
-      <c r="R20" s="95">
+      <c r="R21" s="95">
         <v>1.55</v>
       </c>
-      <c r="S20" s="95" t="s">
+      <c r="S21" s="95" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="95" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="117" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="117"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="117" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
-      <c r="B26" s="95" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="117"/>
+      <c r="B27" s="95" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="117" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B28" s="95" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="117">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="117">
         <v>41090</v>
       </c>
-      <c r="B28" s="95">
+      <c r="B29" s="95">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="117">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="117">
         <v>41121</v>
       </c>
-      <c r="B29" s="95">
+      <c r="B30" s="95">
         <v>10123</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="117">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="117">
         <v>41152</v>
       </c>
-      <c r="B30" s="95">
+      <c r="B31" s="95">
         <v>10331</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="117">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="117">
         <v>41182</v>
       </c>
-      <c r="B31" s="95">
+      <c r="B32" s="95">
         <v>10555</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="117">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="117">
         <v>41213</v>
       </c>
-      <c r="B32" s="95">
+      <c r="B33" s="95">
         <v>10482</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="117">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="117">
         <v>41243</v>
       </c>
-      <c r="B33" s="95">
+      <c r="B34" s="95">
         <v>10574</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="117">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="117">
         <v>41274</v>
       </c>
-      <c r="B34" s="95">
+      <c r="B35" s="95">
         <v>10718</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="117">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="117">
         <v>41305</v>
       </c>
-      <c r="B35" s="95">
+      <c r="B36" s="95">
         <v>11047</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="117">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="117">
         <v>41333</v>
       </c>
-      <c r="B36" s="95">
+      <c r="B37" s="95">
         <v>11059</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="117">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="117">
         <v>41364</v>
       </c>
-      <c r="B37" s="95">
+      <c r="B38" s="95">
         <v>11243</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="117">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="117">
         <v>41394</v>
       </c>
-      <c r="B38" s="95">
+      <c r="B39" s="95">
         <v>11398</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="117">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="117">
         <v>41425</v>
       </c>
-      <c r="B39" s="95">
+      <c r="B40" s="95">
         <v>11393</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="117">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="117">
         <v>41455</v>
       </c>
-      <c r="B40" s="95">
+      <c r="B41" s="95">
         <v>11132</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="117">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="117">
         <v>41486</v>
       </c>
-      <c r="B41" s="95">
+      <c r="B42" s="95">
         <v>11538</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="117">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="117">
         <v>41517</v>
       </c>
-      <c r="B42" s="95">
+      <c r="B43" s="95">
         <v>11354</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="117">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="117">
         <v>41547</v>
       </c>
-      <c r="B43" s="95">
+      <c r="B44" s="95">
         <v>11753</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="117">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="117">
         <v>41578</v>
       </c>
-      <c r="B44" s="95">
+      <c r="B45" s="95">
         <v>12085</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="117">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="117">
         <v>41608</v>
       </c>
-      <c r="B45" s="95">
+      <c r="B46" s="95">
         <v>12200</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="117">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="117">
         <v>41639</v>
       </c>
-      <c r="B46" s="95">
+      <c r="B47" s="95">
         <v>12384</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="117">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="117">
         <v>41670</v>
       </c>
-      <c r="B47" s="95">
+      <c r="B48" s="95">
         <v>12176</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="117">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="117">
         <v>41698</v>
       </c>
-      <c r="B48" s="95">
+      <c r="B49" s="95">
         <v>12637</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="117">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="117">
         <v>41729</v>
       </c>
-      <c r="B49" s="95">
+      <c r="B50" s="95">
         <v>12626</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="117">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="117">
         <v>41759</v>
       </c>
-      <c r="B50" s="95">
+      <c r="B51" s="95">
         <v>12645</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="117">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="117">
         <v>41790</v>
       </c>
-      <c r="B51" s="95">
+      <c r="B52" s="95">
         <v>12897</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="117">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="117">
         <v>41820</v>
       </c>
-      <c r="B52" s="95">
+      <c r="B53" s="95">
         <v>13127</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="117">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="117">
         <v>41851</v>
       </c>
-      <c r="B53" s="95">
+      <c r="B54" s="95">
         <v>12933</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="117">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="117">
         <v>41882</v>
       </c>
-      <c r="B54" s="95">
+      <c r="B55" s="95">
         <v>13198</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="117">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="117">
         <v>41912</v>
       </c>
-      <c r="B55" s="95">
+      <c r="B56" s="95">
         <v>12885</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="117">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="117">
         <v>41943</v>
       </c>
-      <c r="B56" s="95">
+      <c r="B57" s="95">
         <v>12964</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="117">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="117">
         <v>41973</v>
       </c>
-      <c r="B57" s="95">
+      <c r="B58" s="95">
         <v>13080</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="117">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="117">
         <v>42004</v>
       </c>
-      <c r="B58" s="95">
+      <c r="B59" s="95">
         <v>12919</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="117">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="117">
         <v>42035</v>
       </c>
-      <c r="B59" s="95">
+      <c r="B60" s="95">
         <v>12905</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="117">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="117">
         <v>42063</v>
       </c>
-      <c r="B60" s="95">
+      <c r="B61" s="95">
         <v>13261</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="117">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="117">
         <v>42094</v>
       </c>
-      <c r="B61" s="95">
+      <c r="B62" s="95">
         <v>13109</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="117">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="117">
         <v>42124</v>
       </c>
-      <c r="B62" s="95">
+      <c r="B63" s="95">
         <v>13268</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="117">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="117">
         <v>42155</v>
       </c>
-      <c r="B63" s="95">
+      <c r="B64" s="95">
         <v>13296</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="117">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="117">
         <v>42185</v>
       </c>
-      <c r="B64" s="95">
+      <c r="B65" s="95">
         <v>13050</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="117">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="117">
         <v>42216</v>
       </c>
-      <c r="B65" s="95">
+      <c r="B66" s="95">
         <v>13117</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="117">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="117">
         <v>42247</v>
       </c>
-      <c r="B66" s="95">
+      <c r="B67" s="95">
         <v>12577</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="117">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="117">
         <v>42277</v>
       </c>
-      <c r="B67" s="95">
+      <c r="B68" s="95">
         <v>12263</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="117">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="117">
         <v>42308</v>
       </c>
-      <c r="B68" s="95">
+      <c r="B69" s="95">
         <v>12855</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="117">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="117">
         <v>42338</v>
       </c>
-      <c r="B69" s="95">
+      <c r="B70" s="95">
         <v>12788</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="117">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="117">
         <v>42369</v>
       </c>
-      <c r="B70" s="95">
+      <c r="B71" s="95">
         <v>12593</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="117">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="117">
         <v>42400</v>
       </c>
-      <c r="B71" s="95">
+      <c r="B72" s="95">
         <v>12121</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="117">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="117">
         <v>42429</v>
       </c>
-      <c r="B72" s="95">
+      <c r="B73" s="95">
         <v>12118</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="117">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="117">
         <v>42460</v>
       </c>
-      <c r="B73" s="95">
+      <c r="B74" s="95">
         <v>12710</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="117">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="117">
         <v>42490</v>
       </c>
-      <c r="B74" s="95">
+      <c r="B75" s="95">
         <v>12885</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="117">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="117">
         <v>42521</v>
       </c>
-      <c r="B75" s="95">
+      <c r="B76" s="95">
         <v>12923</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="117">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="117">
         <v>42551</v>
       </c>
-      <c r="B76" s="95">
+      <c r="B77" s="95">
         <v>12958</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="117">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="117">
         <v>42582</v>
       </c>
-      <c r="B77" s="95">
+      <c r="B78" s="95">
         <v>13347</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="117">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="117">
         <v>42613</v>
       </c>
-      <c r="B78" s="95">
+      <c r="B79" s="95">
         <v>13382</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="117">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="117">
         <v>42643</v>
       </c>
-      <c r="B79" s="95">
+      <c r="B80" s="95">
         <v>13464</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="117">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="117">
         <v>42674</v>
       </c>
-      <c r="B80" s="95">
+      <c r="B81" s="95">
         <v>13286</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="117">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="117">
         <v>42704</v>
       </c>
-      <c r="B81" s="95">
+      <c r="B82" s="95">
         <v>13337</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="117">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="117">
         <v>42735</v>
       </c>
-      <c r="B82" s="95">
+      <c r="B83" s="95">
         <v>13494</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="117">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="117">
         <v>42766</v>
       </c>
-      <c r="B83" s="95">
+      <c r="B84" s="95">
         <v>13784</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="117">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="117">
         <v>42794</v>
       </c>
-      <c r="B84" s="95">
+      <c r="B85" s="95">
         <v>14072</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="117">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="117">
         <v>42825</v>
       </c>
-      <c r="B85" s="95">
+      <c r="B86" s="95">
         <v>14178</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="117">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="117">
         <v>42855</v>
       </c>
-      <c r="B86" s="95">
+      <c r="B87" s="95">
         <v>14356</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="117">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="117">
         <v>42886</v>
       </c>
-      <c r="B87" s="95">
+      <c r="B88" s="95">
         <v>14549</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="117">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="117">
         <v>42916</v>
       </c>
-      <c r="B88" s="95">
+      <c r="B89" s="95">
         <v>14604</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="117">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="117">
         <v>42947</v>
       </c>
-      <c r="B89" s="95">
+      <c r="B90" s="95">
         <v>14872</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="117">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="117">
         <v>42978</v>
       </c>
-      <c r="B90" s="95">
+      <c r="B91" s="95">
         <v>14927</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="117">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="117">
         <v>43008</v>
       </c>
-      <c r="B91" s="95">
+      <c r="B92" s="95">
         <v>15102</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="117">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="117">
         <v>43039</v>
       </c>
-      <c r="B92" s="95">
+      <c r="B93" s="95">
         <v>15279</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="117">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="117">
         <v>43069</v>
       </c>
-      <c r="B93" s="95">
+      <c r="B94" s="95">
         <v>15446</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="117">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="117">
         <v>43100</v>
       </c>
-      <c r="B94" s="95">
+      <c r="B95" s="95">
         <v>15581</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="117">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="117">
         <v>43131</v>
       </c>
-      <c r="B95" s="95">
+      <c r="B96" s="95">
         <v>16093</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="117">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="117">
         <v>43159</v>
       </c>
-      <c r="B96" s="95">
+      <c r="B97" s="95">
         <v>15620</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="117">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="117">
         <v>43190</v>
       </c>
-      <c r="B97" s="95">
+      <c r="B98" s="95">
         <v>15503</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="117">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="117">
         <v>43220</v>
       </c>
-      <c r="B98" s="95">
+      <c r="B99" s="95">
         <v>15556</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="117">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="117">
         <v>43251</v>
       </c>
-      <c r="B99" s="95">
+      <c r="B100" s="95">
         <v>15618</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="117">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="117">
         <v>43281</v>
       </c>
-      <c r="B100" s="95">
+      <c r="B101" s="95">
         <v>15606</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="117">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="117">
         <v>43312</v>
       </c>
-      <c r="B101" s="95">
+      <c r="B102" s="95">
         <v>15910</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="117">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="117">
         <v>43343</v>
       </c>
-      <c r="B102" s="95">
+      <c r="B103" s="95">
         <v>15972</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="117">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="117">
         <v>43373</v>
       </c>
-      <c r="B103" s="95">
+      <c r="B104" s="95">
         <v>15991</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="117">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="117">
         <v>43404</v>
       </c>
-      <c r="B104" s="95">
+      <c r="B105" s="95">
         <v>15185</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="117">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="117">
         <v>43434</v>
       </c>
-      <c r="B105" s="95">
+      <c r="B106" s="95">
         <v>15343</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="117">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="117">
         <v>43465</v>
       </c>
-      <c r="B106" s="95">
+      <c r="B107" s="95">
         <v>14631</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="117">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="117">
         <v>43496</v>
       </c>
-      <c r="B107" s="95">
+      <c r="B108" s="95">
         <v>15516</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="117">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="117">
         <v>43524</v>
       </c>
-      <c r="B108" s="95">
+      <c r="B109" s="95">
         <v>15811</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="117">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="117">
         <v>43555</v>
       </c>
-      <c r="B109" s="95">
+      <c r="B110" s="95">
         <v>16005</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="117">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="117">
         <v>43585</v>
       </c>
-      <c r="B110" s="95">
+      <c r="B111" s="95">
         <v>16374</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="117">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="117">
         <v>43616</v>
       </c>
-      <c r="B111" s="95">
+      <c r="B112" s="95">
         <v>15790</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="117">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="117">
         <v>43646</v>
       </c>
-      <c r="B112" s="95">
+      <c r="B113" s="95">
         <v>16525</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="117">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="117">
         <v>43677</v>
       </c>
-      <c r="B113" s="95">
+      <c r="B114" s="95">
         <v>16566</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="117">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="117">
         <v>43708</v>
       </c>
-      <c r="B114" s="95">
+      <c r="B115" s="95">
         <v>16431</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="117">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="117">
         <v>43738</v>
       </c>
-      <c r="B115" s="95">
+      <c r="B116" s="95">
         <v>16579</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="117">
         <v>43769</v>
       </c>
-      <c r="B116" s="95">
+      <c r="B117" s="95">
         <v>16818</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="117">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="117">
         <v>43799</v>
       </c>
-      <c r="B117" s="95">
+      <c r="B118" s="95">
         <v>17139</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="117">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="117">
         <v>43830</v>
       </c>
-      <c r="B118" s="95">
+      <c r="B119" s="95">
         <v>17559</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="117">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="117">
         <v>43861</v>
       </c>
-      <c r="B119" s="95">
+      <c r="B120" s="95">
         <v>17497</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="117">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="117">
         <v>43890</v>
       </c>
-      <c r="B120" s="95">
+      <c r="B121" s="95">
         <v>16680</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="117">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="117">
         <v>43921</v>
       </c>
-      <c r="B121" s="95">
+      <c r="B122" s="95">
         <v>14784</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="117">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="117">
         <v>43951</v>
       </c>
-      <c r="B122" s="95">
+      <c r="B123" s="95">
         <v>16045</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="117">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="117">
         <v>43982</v>
       </c>
-      <c r="B123" s="95">
+      <c r="B124" s="95">
         <v>16700</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="117">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="117">
         <v>44012</v>
       </c>
-      <c r="B124" s="95">
+      <c r="B125" s="95">
         <v>17088</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="117">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="117">
         <v>44043</v>
       </c>
-      <c r="B125" s="95">
+      <c r="B126" s="95">
         <v>17794</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="117">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="117">
         <v>44074</v>
       </c>
-      <c r="B126" s="95">
+      <c r="B127" s="95">
         <v>18456</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="117">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="117">
         <v>44104</v>
       </c>
-      <c r="B127" s="95">
+      <c r="B128" s="95">
         <v>18071</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="117">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="117">
         <v>44135</v>
       </c>
-      <c r="B128" s="95">
+      <c r="B129" s="95">
         <v>17862</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="117">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="117">
         <v>44165</v>
       </c>
-      <c r="B129" s="95">
+      <c r="B130" s="95">
         <v>19464</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="117">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="117">
         <v>44196</v>
       </c>
-      <c r="B130" s="95">
+      <c r="B131" s="95">
         <v>20195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="117">
+        <v>44227</v>
+      </c>
+      <c r="B132" s="95">
+        <v>20121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="117">
+        <v>44255</v>
+      </c>
+      <c r="B133" s="95">
+        <v>20596</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="117">
+        <v>44286</v>
+      </c>
+      <c r="B134" s="95">
+        <v>21012</v>
       </c>
     </row>
   </sheetData>
@@ -10613,12 +11163,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="95"/>
+    <col min="1" max="16384" width="8.85546875" style="95"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10629,22 +11179,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0479549E-4036-46F3-A132-D1C9A506F728}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="117" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="118"/>
-    <col min="3" max="3" width="8.5546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="117" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="118"/>
+    <col min="3" max="3" width="8.5703125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
@@ -10655,7 +11205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="117">
         <f>'CLT Fact Sheet Backup'!A2</f>
         <v>41092</v>
@@ -10669,7 +11219,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="117">
         <f>'CLT Fact Sheet Backup'!A3</f>
         <v>41121</v>
@@ -10683,7 +11233,7 @@
         <v>10123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="117">
         <f>'CLT Fact Sheet Backup'!A4</f>
         <v>41152</v>
@@ -10697,7 +11247,7 @@
         <v>10331</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="117">
         <f>'CLT Fact Sheet Backup'!A5</f>
         <v>41182</v>
@@ -10711,7 +11261,7 @@
         <v>10555</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="117">
         <f>'CLT Fact Sheet Backup'!A6</f>
         <v>41213</v>
@@ -10725,7 +11275,7 @@
         <v>10482</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="117">
         <f>'CLT Fact Sheet Backup'!A7</f>
         <v>41243</v>
@@ -10739,7 +11289,7 @@
         <v>10574</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="117">
         <f>'CLT Fact Sheet Backup'!A8</f>
         <v>41274</v>
@@ -10753,7 +11303,7 @@
         <v>10718</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="117">
         <f>'CLT Fact Sheet Backup'!A9</f>
         <v>41305</v>
@@ -10767,7 +11317,7 @@
         <v>11047</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="117">
         <f>'CLT Fact Sheet Backup'!A10</f>
         <v>41333</v>
@@ -10781,7 +11331,7 @@
         <v>11059</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="117">
         <f>'CLT Fact Sheet Backup'!A11</f>
         <v>41364</v>
@@ -10795,7 +11345,7 @@
         <v>11243</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="117">
         <f>'CLT Fact Sheet Backup'!A12</f>
         <v>41394</v>
@@ -10809,7 +11359,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="117">
         <f>'CLT Fact Sheet Backup'!A13</f>
         <v>41425</v>
@@ -10823,7 +11373,7 @@
         <v>11393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="117">
         <f>'CLT Fact Sheet Backup'!A14</f>
         <v>41455</v>
@@ -10837,7 +11387,7 @@
         <v>11132</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="117">
         <f>'CLT Fact Sheet Backup'!A15</f>
         <v>41486</v>
@@ -10851,7 +11401,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="117">
         <f>'CLT Fact Sheet Backup'!A16</f>
         <v>41517</v>
@@ -10865,7 +11415,7 @@
         <v>11354</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="117">
         <f>'CLT Fact Sheet Backup'!A17</f>
         <v>41547</v>
@@ -10879,7 +11429,7 @@
         <v>11753</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="117">
         <f>'CLT Fact Sheet Backup'!A18</f>
         <v>41578</v>
@@ -10893,7 +11443,7 @@
         <v>12085</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="117">
         <f>'CLT Fact Sheet Backup'!A19</f>
         <v>41608</v>
@@ -10907,7 +11457,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="117">
         <f>'CLT Fact Sheet Backup'!A20</f>
         <v>41639</v>
@@ -10921,7 +11471,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="117">
         <f>'CLT Fact Sheet Backup'!A21</f>
         <v>41670</v>
@@ -10935,7 +11485,7 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="117">
         <f>'CLT Fact Sheet Backup'!A22</f>
         <v>41698</v>
@@ -10949,7 +11499,7 @@
         <v>12637</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="117">
         <f>'CLT Fact Sheet Backup'!A23</f>
         <v>41729</v>
@@ -10963,7 +11513,7 @@
         <v>12626</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="117">
         <f>'CLT Fact Sheet Backup'!A24</f>
         <v>41759</v>
@@ -10977,7 +11527,7 @@
         <v>12645</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="117">
         <f>'CLT Fact Sheet Backup'!A25</f>
         <v>41790</v>
@@ -10991,7 +11541,7 @@
         <v>12897</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="117">
         <f>'CLT Fact Sheet Backup'!A26</f>
         <v>41820</v>
@@ -11005,7 +11555,7 @@
         <v>13127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="117">
         <f>'CLT Fact Sheet Backup'!A27</f>
         <v>41851</v>
@@ -11019,7 +11569,7 @@
         <v>12933</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="117">
         <f>'CLT Fact Sheet Backup'!A28</f>
         <v>41882</v>
@@ -11033,7 +11583,7 @@
         <v>13198</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="117">
         <f>'CLT Fact Sheet Backup'!A29</f>
         <v>41912</v>
@@ -11047,7 +11597,7 @@
         <v>12885</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="117">
         <f>'CLT Fact Sheet Backup'!A30</f>
         <v>41943</v>
@@ -11061,7 +11611,7 @@
         <v>12964</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="117">
         <f>'CLT Fact Sheet Backup'!A31</f>
         <v>41973</v>
@@ -11075,7 +11625,7 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="117">
         <f>'CLT Fact Sheet Backup'!A32</f>
         <v>42004</v>
@@ -11089,7 +11639,7 @@
         <v>12919</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="117">
         <f>'CLT Fact Sheet Backup'!A33</f>
         <v>42035</v>
@@ -11103,7 +11653,7 @@
         <v>12905</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="117">
         <f>'CLT Fact Sheet Backup'!A34</f>
         <v>42063</v>
@@ -11117,7 +11667,7 @@
         <v>13261</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="117">
         <f>'CLT Fact Sheet Backup'!A35</f>
         <v>42094</v>
@@ -11131,7 +11681,7 @@
         <v>13109</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="117">
         <f>'CLT Fact Sheet Backup'!A36</f>
         <v>42124</v>
@@ -11145,7 +11695,7 @@
         <v>13268</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="117">
         <f>'CLT Fact Sheet Backup'!A37</f>
         <v>42155</v>
@@ -11159,7 +11709,7 @@
         <v>13296</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="117">
         <f>'CLT Fact Sheet Backup'!A38</f>
         <v>42185</v>
@@ -11173,7 +11723,7 @@
         <v>13050</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="117">
         <f>'CLT Fact Sheet Backup'!A39</f>
         <v>42216</v>
@@ -11187,7 +11737,7 @@
         <v>13117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="117">
         <f>'CLT Fact Sheet Backup'!A40</f>
         <v>42247</v>
@@ -11201,7 +11751,7 @@
         <v>12577</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="117">
         <f>'CLT Fact Sheet Backup'!A41</f>
         <v>42277</v>
@@ -11215,7 +11765,7 @@
         <v>12263</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="117">
         <f>'CLT Fact Sheet Backup'!A42</f>
         <v>42308</v>
@@ -11229,7 +11779,7 @@
         <v>12855</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="117">
         <f>'CLT Fact Sheet Backup'!A43</f>
         <v>42338</v>
@@ -11243,7 +11793,7 @@
         <v>12788</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="117">
         <f>'CLT Fact Sheet Backup'!A44</f>
         <v>42369</v>
@@ -11257,7 +11807,7 @@
         <v>12593</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="117">
         <f>'CLT Fact Sheet Backup'!A45</f>
         <v>42400</v>
@@ -11271,7 +11821,7 @@
         <v>12121</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="117">
         <f>'CLT Fact Sheet Backup'!A46</f>
         <v>42429</v>
@@ -11285,7 +11835,7 @@
         <v>12118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="117">
         <f>'CLT Fact Sheet Backup'!A47</f>
         <v>42460</v>
@@ -11299,7 +11849,7 @@
         <v>12710</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="117">
         <f>'CLT Fact Sheet Backup'!A48</f>
         <v>42490</v>
@@ -11313,7 +11863,7 @@
         <v>12885</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="117">
         <f>'CLT Fact Sheet Backup'!A49</f>
         <v>42521</v>
@@ -11327,7 +11877,7 @@
         <v>12923</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="117">
         <f>'CLT Fact Sheet Backup'!A50</f>
         <v>42551</v>
@@ -11341,7 +11891,7 @@
         <v>12958</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="117">
         <f>'CLT Fact Sheet Backup'!A51</f>
         <v>42582</v>
@@ -11355,7 +11905,7 @@
         <v>13347</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="117">
         <f>'CLT Fact Sheet Backup'!A52</f>
         <v>42613</v>
@@ -11369,7 +11919,7 @@
         <v>13382</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="117">
         <f>'CLT Fact Sheet Backup'!A53</f>
         <v>42643</v>
@@ -11383,7 +11933,7 @@
         <v>13464</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="117">
         <f>'CLT Fact Sheet Backup'!A54</f>
         <v>42674</v>
@@ -11397,7 +11947,7 @@
         <v>13286</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="117">
         <f>'CLT Fact Sheet Backup'!A55</f>
         <v>42704</v>
@@ -11411,7 +11961,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="117">
         <f>'CLT Fact Sheet Backup'!A56</f>
         <v>42735</v>
@@ -11425,7 +11975,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="117">
         <f>'CLT Fact Sheet Backup'!A57</f>
         <v>42766</v>
@@ -11439,7 +11989,7 @@
         <v>13784</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="117">
         <f>'CLT Fact Sheet Backup'!A58</f>
         <v>42794</v>
@@ -11453,7 +12003,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="117">
         <f>'CLT Fact Sheet Backup'!A59</f>
         <v>42825</v>
@@ -11467,7 +12017,7 @@
         <v>14178</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="117">
         <f>'CLT Fact Sheet Backup'!A60</f>
         <v>42855</v>
@@ -11481,7 +12031,7 @@
         <v>14356</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="117">
         <f>'CLT Fact Sheet Backup'!A61</f>
         <v>42886</v>
@@ -11495,7 +12045,7 @@
         <v>14549</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="117">
         <f>'CLT Fact Sheet Backup'!A62</f>
         <v>42916</v>
@@ -11509,7 +12059,7 @@
         <v>14604</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="117">
         <f>'CLT Fact Sheet Backup'!A63</f>
         <v>42947</v>
@@ -11523,7 +12073,7 @@
         <v>14872</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="117">
         <f>'CLT Fact Sheet Backup'!A64</f>
         <v>42978</v>
@@ -11537,7 +12087,7 @@
         <v>14927</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="117">
         <f>'CLT Fact Sheet Backup'!A65</f>
         <v>43008</v>
@@ -11551,7 +12101,7 @@
         <v>15102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="117">
         <f>'CLT Fact Sheet Backup'!A66</f>
         <v>43039</v>
@@ -11565,7 +12115,7 @@
         <v>15279</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="117">
         <f>'CLT Fact Sheet Backup'!A67</f>
         <v>43069</v>
@@ -11579,7 +12129,7 @@
         <v>15446</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="117">
         <f>'CLT Fact Sheet Backup'!A68</f>
         <v>43100</v>
@@ -11593,7 +12143,7 @@
         <v>15581</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="117">
         <f>'CLT Fact Sheet Backup'!A69</f>
         <v>43131</v>
@@ -11607,7 +12157,7 @@
         <v>16093</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="117">
         <f>'CLT Fact Sheet Backup'!A70</f>
         <v>43159</v>
@@ -11621,7 +12171,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="117">
         <f>'CLT Fact Sheet Backup'!A71</f>
         <v>43190</v>
@@ -11635,7 +12185,7 @@
         <v>15503</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="117">
         <f>'CLT Fact Sheet Backup'!A72</f>
         <v>43220</v>
@@ -11649,7 +12199,7 @@
         <v>15556</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="117">
         <f>'CLT Fact Sheet Backup'!A73</f>
         <v>43251</v>
@@ -11663,7 +12213,7 @@
         <v>15618</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="117">
         <f>'CLT Fact Sheet Backup'!A74</f>
         <v>43281</v>
@@ -11677,7 +12227,7 @@
         <v>15606</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="117">
         <f>'CLT Fact Sheet Backup'!A75</f>
         <v>43312</v>
@@ -11691,7 +12241,7 @@
         <v>15910</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="117">
         <f>'CLT Fact Sheet Backup'!A76</f>
         <v>43343</v>
@@ -11705,7 +12255,7 @@
         <v>15972</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="117">
         <f>'CLT Fact Sheet Backup'!A77</f>
         <v>43373</v>
@@ -11719,7 +12269,7 @@
         <v>15991</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="117">
         <f>'CLT Fact Sheet Backup'!A78</f>
         <v>43404</v>
@@ -11733,7 +12283,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="117">
         <f>'CLT Fact Sheet Backup'!A79</f>
         <v>43434</v>
@@ -11747,7 +12297,7 @@
         <v>15343</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="117">
         <f>'CLT Fact Sheet Backup'!A80</f>
         <v>43465</v>
@@ -11761,7 +12311,7 @@
         <v>14631</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="117">
         <f>'CLT Fact Sheet Backup'!A81</f>
         <v>43496</v>
@@ -11775,7 +12325,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="117">
         <f>'CLT Fact Sheet Backup'!A82</f>
         <v>43524</v>
@@ -11789,7 +12339,7 @@
         <v>15811</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="117">
         <f>'CLT Fact Sheet Backup'!A83</f>
         <v>43555</v>
@@ -11803,7 +12353,7 @@
         <v>16005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="117">
         <f>'CLT Fact Sheet Backup'!A84</f>
         <v>43585</v>
@@ -11817,7 +12367,7 @@
         <v>16374</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="117">
         <f>'CLT Fact Sheet Backup'!A85</f>
         <v>43616</v>
@@ -11831,7 +12381,7 @@
         <v>15790</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="117">
         <f>'CLT Fact Sheet Backup'!A86</f>
         <v>43646</v>
@@ -11845,7 +12395,7 @@
         <v>16525</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="117">
         <f>'CLT Fact Sheet Backup'!A87</f>
         <v>43677</v>
@@ -11859,7 +12409,7 @@
         <v>16566</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="117">
         <f>'CLT Fact Sheet Backup'!A88</f>
         <v>43708</v>
@@ -11873,7 +12423,7 @@
         <v>16431</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="117">
         <f>'CLT Fact Sheet Backup'!A89</f>
         <v>43738</v>
@@ -11887,7 +12437,7 @@
         <v>16579</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="117">
         <f>'CLT Fact Sheet Backup'!A90</f>
         <v>43769</v>
@@ -11901,7 +12451,7 @@
         <v>16818</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="117">
         <f>'CLT Fact Sheet Backup'!A91</f>
         <v>43799</v>
@@ -11915,7 +12465,7 @@
         <v>17139</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="117">
         <f>'CLT Fact Sheet Backup'!A92</f>
         <v>43830</v>
@@ -11929,7 +12479,7 @@
         <v>17559</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="117">
         <f>'CLT Fact Sheet Backup'!A93</f>
         <v>43861</v>
@@ -11943,7 +12493,7 @@
         <v>17497</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="117">
         <f>'CLT Fact Sheet Backup'!A94</f>
         <v>43890</v>
@@ -11957,7 +12507,7 @@
         <v>16680</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="117">
         <f>'CLT Fact Sheet Backup'!A95</f>
         <v>43921</v>
@@ -11971,7 +12521,7 @@
         <v>14784</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="117">
         <f>'CLT Fact Sheet Backup'!A96</f>
         <v>43951</v>
@@ -11985,7 +12535,7 @@
         <v>16045</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="117">
         <f>'CLT Fact Sheet Backup'!A97</f>
         <v>43982</v>
@@ -11999,7 +12549,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="117">
         <f>'CLT Fact Sheet Backup'!A98</f>
         <v>44012</v>
@@ -12013,7 +12563,7 @@
         <v>17088</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="117">
         <f>'CLT Fact Sheet Backup'!A99</f>
         <v>44043</v>
@@ -12027,7 +12577,7 @@
         <v>17794</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="117">
         <f>'CLT Fact Sheet Backup'!A100</f>
         <v>44074</v>
@@ -12041,7 +12591,7 @@
         <v>18456</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="117">
         <f>'CLT Fact Sheet Backup'!A101</f>
         <v>44104</v>
@@ -12055,7 +12605,7 @@
         <v>18071</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="117">
         <f>'CLT Fact Sheet Backup'!A102</f>
         <v>44135</v>
@@ -12069,7 +12619,7 @@
         <v>17862</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="117">
         <f>'CLT Fact Sheet Backup'!A103</f>
         <v>44165</v>
@@ -12083,7 +12633,7 @@
         <v>19464</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="117">
         <f>'CLT Fact Sheet Backup'!A104</f>
         <v>44196</v>
@@ -12095,6 +12645,48 @@
       <c r="C104" s="118">
         <f>'CLT Fact Sheet Backup'!F104</f>
         <v>20195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="117">
+        <f>'CLT Fact Sheet Backup'!A105</f>
+        <v>44227</v>
+      </c>
+      <c r="B105" s="118">
+        <f>'CLT Fact Sheet Backup'!B105</f>
+        <v>25120</v>
+      </c>
+      <c r="C105" s="118">
+        <f>'CLT Fact Sheet Backup'!F105</f>
+        <v>20121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="117">
+        <f>'CLT Fact Sheet Backup'!A106</f>
+        <v>44255</v>
+      </c>
+      <c r="B106" s="118">
+        <f>'CLT Fact Sheet Backup'!B106</f>
+        <v>25861</v>
+      </c>
+      <c r="C106" s="118">
+        <f>'CLT Fact Sheet Backup'!F106</f>
+        <v>20596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="117">
+        <f>'CLT Fact Sheet Backup'!A107</f>
+        <v>44286</v>
+      </c>
+      <c r="B107" s="118">
+        <f>'CLT Fact Sheet Backup'!B107</f>
+        <v>27313</v>
+      </c>
+      <c r="C107" s="118">
+        <f>'CLT Fact Sheet Backup'!F107</f>
+        <v>21012</v>
       </c>
     </row>
   </sheetData>
@@ -12106,22 +12698,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D11360-96B8-4BA2-819A-07CE53BA19BC}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="118"/>
-    <col min="5" max="5" width="14.109375" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="120"/>
+    <col min="1" max="1" width="34.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="118"/>
+    <col min="5" max="5" width="14.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="118" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I15</f>
         <v>Share Class/Benchmark</v>
@@ -12150,186 +12744,186 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I16</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="118">
         <f>'CLT Fact Sheet Backup'!J16</f>
-        <v>27.832438878950505</v>
+        <v>54.967375886524827</v>
       </c>
       <c r="C2" s="118">
         <f>'CLT Fact Sheet Backup'!K16</f>
-        <v>7.6803107858644415</v>
+        <v>9.7843063712351288</v>
       </c>
       <c r="D2" s="118">
         <f>'CLT Fact Sheet Backup'!L16</f>
-        <v>10.170572686983071</v>
+        <v>10.742636061459422</v>
       </c>
       <c r="E2" s="118">
         <f>'CLT Fact Sheet Backup'!M16</f>
-        <v>11.76</v>
+        <v>12.18</v>
       </c>
       <c r="F2" s="95">
         <f>'CLT Fact Sheet Backup'!N16</f>
-        <v>157.25</v>
+        <v>173.13</v>
       </c>
       <c r="G2" s="120">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I17</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="118">
         <f>'CLT Fact Sheet Backup'!J17</f>
-        <v>26.88</v>
+        <v>53.87</v>
       </c>
       <c r="C3" s="118">
         <f>'CLT Fact Sheet Backup'!K17</f>
-        <v>6.87</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D3" s="118">
         <f>'CLT Fact Sheet Backup'!L17</f>
-        <v>9.36</v>
+        <v>9.9</v>
       </c>
       <c r="E3" s="118">
         <f>'CLT Fact Sheet Backup'!M17</f>
-        <v>10.94</v>
+        <v>11.35</v>
       </c>
       <c r="F3" s="95">
         <f>'CLT Fact Sheet Backup'!N17</f>
-        <v>141.67000000000002</v>
+        <v>156.07999999999998</v>
       </c>
       <c r="G3" s="120">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I18</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B4" s="118">
         <f>'CLT Fact Sheet Backup'!J18</f>
-        <v>20.48</v>
+        <v>46.01</v>
       </c>
       <c r="C4" s="118">
         <f>'CLT Fact Sheet Backup'!K18</f>
-        <v>5.58</v>
+        <v>7.64</v>
       </c>
       <c r="D4" s="118">
         <f>'CLT Fact Sheet Backup'!L18</f>
-        <v>8.8800000000000008</v>
+        <v>9.44</v>
       </c>
       <c r="E4" s="118">
         <f>'CLT Fact Sheet Backup'!M18</f>
-        <v>10.979999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="F4" s="95">
         <f>'CLT Fact Sheet Backup'!N18</f>
-        <v>142.45000000000002</v>
+        <v>157.42000000000002</v>
       </c>
       <c r="G4" s="120">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>168</v>
       </c>
       <c r="B5" s="118">
         <f>'CLT Fact Sheet Backup'!J19</f>
-        <v>15.012244433054276</v>
+        <v>42.126623376623378</v>
       </c>
       <c r="C5" s="118">
         <f>'CLT Fact Sheet Backup'!K19</f>
-        <v>9.0308781525830319</v>
+        <v>10.666765039292647</v>
       </c>
       <c r="D5" s="118">
         <f>'CLT Fact Sheet Backup'!L19</f>
-        <v>9.906386867675776</v>
+        <v>10.576889279776513</v>
       </c>
       <c r="E5" s="118">
         <f>'CLT Fact Sheet Backup'!M19</f>
-        <v>8.6159707753676429</v>
+        <v>8.8555387751591432</v>
       </c>
       <c r="F5" s="95">
         <f>'CLT Fact Sheet Backup'!N19</f>
-        <v>101.95</v>
+        <v>110.11999999999999</v>
       </c>
       <c r="G5" s="120">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="str">
         <f>'CLT Fact Sheet Backup'!I20</f>
         <v>Class I</v>
       </c>
       <c r="B6" s="118">
         <f>'CLT Fact Sheet Backup'!J20</f>
-        <v>28.12</v>
+        <v>55.410000000000004</v>
       </c>
       <c r="C6" s="118">
         <f>'CLT Fact Sheet Backup'!K20</f>
-        <v>7.9600000000000009</v>
+        <v>10.07</v>
       </c>
       <c r="D6" s="118">
         <f>'CLT Fact Sheet Backup'!L20</f>
-        <v>10.440000000000001</v>
+        <v>11.01</v>
       </c>
       <c r="E6" s="118">
         <f>'CLT Fact Sheet Backup'!M20</f>
-        <v>8.44</v>
+        <v>9.09</v>
       </c>
       <c r="F6" s="95">
         <f>'CLT Fact Sheet Backup'!N20</f>
-        <v>70.33</v>
+        <v>80.97999999999999</v>
       </c>
       <c r="G6" s="120">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="118">
         <f>'CLT Fact Sheet Backup'!J21</f>
-        <v>15.012244433054276</v>
+        <v>42.126623376623378</v>
       </c>
       <c r="C7" s="118">
         <f>'CLT Fact Sheet Backup'!K21</f>
-        <v>9.0308781525830319</v>
+        <v>10.666765039292647</v>
       </c>
       <c r="D7" s="118">
         <f>'CLT Fact Sheet Backup'!L21</f>
-        <v>9.906386867675776</v>
+        <v>10.576889279776513</v>
       </c>
       <c r="E7" s="118">
         <f>'CLT Fact Sheet Backup'!M21</f>
-        <v>6.88</v>
+        <v>7.24</v>
       </c>
       <c r="F7" s="95">
         <f>'CLT Fact Sheet Backup'!N21</f>
-        <v>54.92</v>
+        <v>61.19</v>
       </c>
       <c r="G7" s="120">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="95"/>
       <c r="C8" s="95"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="95"/>
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
@@ -12345,15 +12939,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A66CF0A-206A-4FE3-94A8-ECDBC54C1BA9}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -12364,21 +12960,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="str">
         <f>'CLT Portfolio'!H6</f>
         <v>Equity</v>
       </c>
       <c r="B2" s="118">
         <f>'CLT Portfolio'!I6*100</f>
-        <v>92.609043436806402</v>
+        <v>95.741507048926536</v>
       </c>
       <c r="C2" s="95">
         <v>1</v>
       </c>
       <c r="D2" s="118"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>'CLT Portfolio'!H7</f>
         <v>Options</v>
@@ -12391,7 +12987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>'CLT Portfolio'!H5</f>
         <v>Bonds</v>
@@ -12404,14 +13000,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CLT Portfolio'!H4</f>
         <v>Cash</v>
       </c>
       <c r="B5" s="118">
         <f>'CLT Portfolio'!I4*100</f>
-        <v>7.3909565631935976</v>
+        <v>4.2584929510734675</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -12426,20 +13022,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED8395-E55C-4838-B6AF-E336D9BD7E17}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="95" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="121"/>
-    <col min="3" max="3" width="9.109375" style="120"/>
+    <col min="1" max="1" width="30.42578125" style="95" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="121"/>
+    <col min="3" max="3" width="9.140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>94</v>
       </c>
@@ -12450,62 +13048,62 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="str">
         <f>'CLT Portfolio'!E4</f>
-        <v>Cash</v>
+        <v>HCA Healthcare Inc</v>
       </c>
       <c r="B2" s="121">
         <f>'CLT Portfolio'!F4*100</f>
-        <v>7.3999999999999995</v>
+        <v>5.5</v>
       </c>
       <c r="C2" s="120">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>'CLT Portfolio'!E5</f>
         <v>Ubiquiti Inc</v>
       </c>
       <c r="B3" s="121">
         <f>'CLT Portfolio'!F5*100</f>
-        <v>5.6000000000000005</v>
+        <v>5.4</v>
       </c>
       <c r="C3" s="120">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>'CLT Portfolio'!E6</f>
-        <v>HCA Healthcare Inc</v>
+        <v>Darden Restaurants Inc</v>
       </c>
       <c r="B4" s="121">
         <f>'CLT Portfolio'!F6*100</f>
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="120">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="str">
         <f>'CLT Portfolio'!E7</f>
-        <v>Darden Restaurants Inc</v>
+        <v>KLA Corp</v>
       </c>
       <c r="B5" s="121">
         <f>'CLT Portfolio'!F7*100</f>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C5" s="120">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="str">
         <f>'CLT Portfolio'!E8</f>
-        <v>Starbucks Corp</v>
+        <v>Target Corp</v>
       </c>
       <c r="B6" s="121">
         <f>'CLT Portfolio'!F8*100</f>
@@ -12515,10 +13113,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="str">
         <f>'CLT Portfolio'!E9</f>
-        <v>Target Corp</v>
+        <v>Starbucks Corp</v>
       </c>
       <c r="B7" s="121">
         <f>'CLT Portfolio'!F9*100</f>
@@ -12528,49 +13126,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="str">
         <f>'CLT Portfolio'!E10</f>
-        <v>UnitedHealth Group Inc</v>
+        <v>Cash</v>
       </c>
       <c r="B8" s="121">
         <f>'CLT Portfolio'!F10*100</f>
-        <v>4.3999999999999995</v>
+        <v>4.3</v>
       </c>
       <c r="C8" s="120">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="str">
         <f>'CLT Portfolio'!E11</f>
-        <v>Honeywell International Inc</v>
+        <v>UnitedHealth Group Inc</v>
       </c>
       <c r="B9" s="121">
         <f>'CLT Portfolio'!F11*100</f>
-        <v>4.3999999999999995</v>
+        <v>4.2</v>
       </c>
       <c r="C9" s="120">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="str">
         <f>'CLT Portfolio'!E12</f>
-        <v>KLA Corp</v>
+        <v>Honeywell International Inc</v>
       </c>
       <c r="B10" s="121">
         <f>'CLT Portfolio'!F12*100</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="120">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="str">
         <f>'CLT Portfolio'!E13</f>
-        <v>TJX Cos Inc/The</v>
+        <v>Expedia Group Inc</v>
       </c>
       <c r="B11" s="121">
         <f>'CLT Portfolio'!F13*100</f>
